--- a/Dados/Debug/Roleta_Debug.xlsx
+++ b/Dados/Debug/Roleta_Debug.xlsx
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -485,38 +485,38 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1246.69353224093</v>
+        <v>1216.86287864078</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01963799834378327</v>
+        <v>0.02031684605151772</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01963799834378327</v>
+        <v>0.02031684605151772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cromossoma 31</t>
+          <t>Cromossoma 24</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1286.165934192518</v>
+        <v>1250.253189157902</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -531,134 +531,134 @@
         <v>165</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01951969714894121</v>
+        <v>0.01995404522916919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03915769549272448</v>
+        <v>0.04027089128068691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cromossoma 18</t>
+          <t>Cromossoma 72</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1306.327057688504</v>
+        <v>1296.976877460047</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="n">
         <v>162</v>
       </c>
       <c r="H4" t="n">
-        <v>0.019164793564415</v>
+        <v>0.01959124440682065</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05832248905713948</v>
+        <v>0.05986213568750756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cromossoma 48</t>
+          <t>Cromossoma 9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1326.905075558217</v>
+        <v>1303.508339698539</v>
       </c>
       <c r="D5" t="n">
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5" t="n">
         <v>83</v>
       </c>
       <c r="G5" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01869158878504673</v>
+        <v>0.01934937719192164</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07701407784218621</v>
+        <v>0.07921151287942919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cromossoma 21</t>
+          <t>Cromossoma 47</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1339.011838407931</v>
+        <v>1307.574408791636</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01857328759020466</v>
+        <v>0.01922844358447212</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09558736543239087</v>
+        <v>0.09843995646390132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cromossoma 71</t>
+          <t>Cromossoma 28</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1343.567575776929</v>
+        <v>1316.383523365014</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
         <v>83</v>
       </c>
       <c r="G7" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01833668520052053</v>
+        <v>0.01910750997702261</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1139240506329114</v>
+        <v>0.1175474664409239</v>
       </c>
     </row>
     <row r="8">
@@ -667,848 +667,848 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cromossoma 0</t>
+          <t>Cromossoma 70</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1356.936496229197</v>
+        <v>1326.954649235418</v>
       </c>
       <c r="D8" t="n">
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F8" t="n">
         <v>83</v>
       </c>
       <c r="G8" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01750857683662605</v>
+        <v>0.0188656427621236</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1314326274695374</v>
+        <v>0.1364131092030475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cromossoma 44</t>
+          <t>Cromossoma 20</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1358.562355752864</v>
+        <v>1329.9693304495</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F9" t="n">
         <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01727197444694191</v>
+        <v>0.01838190833232555</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1487046019164794</v>
+        <v>0.1547950175353731</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cromossoma 72</t>
+          <t>Cromossoma 42</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1239.638624029564</v>
+        <v>1333.68967553024</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F10" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G10" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01715367325209985</v>
+        <v>0.01814004111742653</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1658582751685792</v>
+        <v>0.1729350586527996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cromossoma 2</t>
+          <t>Cromossoma 66</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1298.811336209352</v>
+        <v>1339.097307890775</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F11" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G11" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01679876966757364</v>
+        <v>0.01789817390252751</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1826570448361529</v>
+        <v>0.1908332325553271</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cromossoma 11</t>
+          <t>Cromossoma 16</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1300.8086051789</v>
+        <v>1355.39257608083</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F12" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01668046847273157</v>
+        <v>0.017777240295078</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1993375133088844</v>
+        <v>0.2086104728504051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cromossoma 78</t>
+          <t>Cromossoma 57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1305.549187342263</v>
+        <v>1365.872066054837</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F13" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G13" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01656216727788951</v>
+        <v>0.01753537308017898</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2158996805867739</v>
+        <v>0.2261458459305841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cromossoma 19</t>
+          <t>Cromossoma 82</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1373.469800497016</v>
+        <v>1381.918462011676</v>
       </c>
       <c r="D14" t="n">
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
         <v>83</v>
       </c>
       <c r="G14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01656216727788951</v>
+        <v>0.01705163865038094</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2324618478646635</v>
+        <v>0.2431974845809651</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cromossoma 23</t>
+          <t>Cromossoma 35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1376.784818087705</v>
+        <v>1386.670482679039</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" t="n">
         <v>83</v>
       </c>
       <c r="G15" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01644386608304744</v>
+        <v>0.01693070504293143</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2489057139477109</v>
+        <v>0.2601281896238965</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cromossoma 79</t>
+          <t>Cromossoma 50</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1309.968537604215</v>
+        <v>1391.435654947748</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F16" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G16" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01632556488820537</v>
+        <v>0.01680977143548192</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2652312788359162</v>
+        <v>0.2769379610593784</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cromossoma 63</t>
+          <t>Cromossoma 83</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1315.442125115155</v>
+        <v>1392.820664304353</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F17" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G17" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0162072636933633</v>
+        <v>0.01668883782803241</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2814385425292795</v>
+        <v>0.2936267988874108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cromossoma 8</t>
+          <t>Cromossoma 53</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1384.419366345562</v>
+        <v>1283.800291819171</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F18" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G18" t="n">
         <v>136</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01608896249852124</v>
+        <v>0.01644697061313339</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2975275050278008</v>
+        <v>0.3100737695005442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cromossoma 9</t>
+          <t>Cromossoma 32</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1388.010367196154</v>
+        <v>1296.795400035604</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G19" t="n">
         <v>135</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01597066130367917</v>
+        <v>0.01632603700568388</v>
       </c>
       <c r="I19" t="n">
-        <v>0.31349816633148</v>
+        <v>0.3263998065062281</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cromossoma 6</t>
+          <t>Cromossoma 79</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1340.829811761365</v>
+        <v>1401.634761282475</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F20" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G20" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0158523601088371</v>
+        <v>0.01632603700568388</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3293505264403171</v>
+        <v>0.3427258435119119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cromossoma 39</t>
+          <t>Cromossoma 15</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1389.899209511203</v>
+        <v>1303.297299541837</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F21" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G21" t="n">
         <v>133</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01573405891399503</v>
+        <v>0.01608416979078486</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3450845853543121</v>
+        <v>0.3588100133026968</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cromossoma 74</t>
+          <t>Cromossoma 62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1347.84289430556</v>
+        <v>1404.25626552722</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G22" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01561575771915296</v>
+        <v>0.01608416979078486</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3607003430734651</v>
+        <v>0.3748941830934817</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cromossoma 68</t>
+          <t>Cromossoma 41</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1347.924899673408</v>
+        <v>1317.586164077373</v>
       </c>
       <c r="D23" t="n">
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01549745652431089</v>
+        <v>0.01560043536098682</v>
       </c>
       <c r="I23" t="n">
-        <v>0.376197799597776</v>
+        <v>0.3904946184544685</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cromossoma 67</t>
+          <t>Cromossoma 11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1402.835787504902</v>
+        <v>1411.666614884797</v>
       </c>
       <c r="D24" t="n">
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" t="n">
         <v>83</v>
       </c>
       <c r="G24" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01549745652431089</v>
+        <v>0.01560043536098682</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3916952561220869</v>
+        <v>0.4060950538154553</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cromossoma 3</t>
+          <t>Cromossoma 22</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1348.088954010506</v>
+        <v>1412.552761338841</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F25" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G25" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01537915532946883</v>
+        <v>0.01547950175353731</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4070744114515557</v>
+        <v>0.4215745555689926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cromossoma 15</t>
+          <t>Cromossoma 38</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1349.190783683897</v>
+        <v>1327.280911143314</v>
       </c>
       <c r="D26" t="n">
         <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G26" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01526085413462676</v>
+        <v>0.0153585681460878</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4223352655861825</v>
+        <v>0.4369331237150804</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cromossoma 59</t>
+          <t>Cromossoma 80</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1351.750729251427</v>
+        <v>1328.244504459085</v>
       </c>
       <c r="D27" t="n">
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F27" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G27" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01514255293978469</v>
+        <v>0.01523763453863829</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4374778185259671</v>
+        <v>0.4521707582537187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cromossoma 76</t>
+          <t>Cromossoma 43</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1352.294532108268</v>
+        <v>1413.327713817444</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F28" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G28" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01502425174494262</v>
+        <v>0.01523763453863829</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4525020702709097</v>
+        <v>0.467408392792357</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cromossoma 13</t>
+          <t>Cromossoma 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1416.90505239091</v>
+        <v>1329.654091596393</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F29" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01502425174494262</v>
+        <v>0.01511670093118878</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4675263220158523</v>
+        <v>0.4825250937235458</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cromossoma 53</t>
+          <t>Cromossoma 58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1357.43735294492</v>
+        <v>1332.535084250347</v>
       </c>
       <c r="D30" t="n">
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F30" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G30" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01478764935525849</v>
+        <v>0.01487483371628976</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4823139713711108</v>
+        <v>0.4973999274398356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cromossoma 30</t>
+          <t>Cromossoma 21</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1359.750634361306</v>
+        <v>1433.235662958068</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F31" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G31" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01455104696557435</v>
+        <v>0.01439109928649172</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4968650183366852</v>
+        <v>0.5117910267263273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cromossoma 34</t>
+          <t>Cromossoma 69</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1363.622323928188</v>
+        <v>1357.189969914373</v>
       </c>
       <c r="D32" t="n">
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F32" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G32" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01443274577073228</v>
+        <v>0.01427016567904221</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5112977641074175</v>
+        <v>0.5260611924053694</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cromossoma 5</t>
+          <t>Cromossoma 81</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1366.059235431582</v>
+        <v>1434.310560245182</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F33" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G33" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01431444457589022</v>
+        <v>0.01414923207159269</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5256122086833077</v>
+        <v>0.5402104244769621</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cromossoma 22</t>
+          <t>Cromossoma 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1437.964736968611</v>
+        <v>1366.413291050915</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F34" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G34" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01419614338104815</v>
+        <v>0.01402829846414319</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5398083520643558</v>
+        <v>0.5542387229411053</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cromossoma 1</t>
+          <t>Cromossoma 8</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1366.096140096388</v>
+        <v>1379.480113303259</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
@@ -1517,300 +1517,300 @@
         <v>59</v>
       </c>
       <c r="F35" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G35" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01419614338104815</v>
+        <v>0.01378643124924417</v>
       </c>
       <c r="I35" t="n">
-        <v>0.554004495445404</v>
+        <v>0.5680251541903495</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cromossoma 62</t>
+          <t>Cromossoma 26</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1367.702355892584</v>
+        <v>1444.742674184017</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F36" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G36" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01407784218620608</v>
+        <v>0.01378643124924417</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5680823376316101</v>
+        <v>0.5818115854395937</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cromossoma 28</t>
+          <t>Cromossoma 13</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1448.215108295616</v>
+        <v>1393.843711530453</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F37" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G37" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01395954099136401</v>
+        <v>0.01318176321199661</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5820418786229741</v>
+        <v>0.5949933486515903</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cromossoma 64</t>
+          <t>Cromossoma 1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1377.657769502315</v>
+        <v>1399.577531836342</v>
       </c>
       <c r="D38" t="n">
         <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F38" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G38" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01372293860167988</v>
+        <v>0.0130608296045471</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5957648172246539</v>
+        <v>0.6080541782561374</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cromossoma 81</t>
+          <t>Cromossoma 49</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1462.383799031938</v>
+        <v>1401.736614840626</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F39" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G39" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01324973382231161</v>
+        <v>0.01281896238964808</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6090145510469656</v>
+        <v>0.6208731406457855</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cromossoma 60</t>
+          <t>Cromossoma 40</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1404.832365506239</v>
+        <v>1404.914651539749</v>
       </c>
       <c r="D40" t="n">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G40" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.01257709517474906</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6216727788950668</v>
+        <v>0.6334502358205345</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cromossoma 14</t>
+          <t>Cromossoma 48</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1408.367137992097</v>
+        <v>1238.08361573297</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F41" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G41" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0125399266532592</v>
+        <v>0.01257709517474906</v>
       </c>
       <c r="I41" t="n">
-        <v>0.634212705548326</v>
+        <v>0.6460273309952835</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cromossoma 54</t>
+          <t>Cromossoma 56</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1477.503875851735</v>
+        <v>1478.728460230153</v>
       </c>
       <c r="D42" t="n">
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F42" t="n">
         <v>83</v>
       </c>
       <c r="G42" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0125399266532592</v>
+        <v>0.01245616156729955</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6467526322015852</v>
+        <v>0.6584834925625831</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cromossoma 45</t>
+          <t>Cromossoma 73</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1428.852421377391</v>
+        <v>1408.380388517812</v>
       </c>
       <c r="D43" t="n">
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F43" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G43" t="n">
         <v>102</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01206672187389093</v>
+        <v>0.01233522795985004</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6588193540754761</v>
+        <v>0.6708187205224332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cromossoma 33</t>
+          <t>Cromossoma 52</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1490.09100124271</v>
+        <v>1484.696565025887</v>
       </c>
       <c r="D44" t="n">
         <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F44" t="n">
         <v>83</v>
       </c>
       <c r="G44" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01206672187389093</v>
+        <v>0.01209336074495102</v>
       </c>
       <c r="I44" t="n">
-        <v>0.670886075949367</v>
+        <v>0.6829120812673842</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1818,503 +1818,503 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1431.182188980257</v>
+        <v>1412.740033904416</v>
       </c>
       <c r="D45" t="n">
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F45" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G45" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01194842067904886</v>
+        <v>0.01197242713750151</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6828344966284159</v>
+        <v>0.6948845084048857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cromossoma 58</t>
+          <t>Cromossoma 27</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1448.607416662378</v>
+        <v>1494.535583780797</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01123861350999645</v>
+        <v>0.01173055992260249</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6940731101384123</v>
+        <v>0.7066150683274882</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cromossoma 29</t>
+          <t>Cromossoma 67</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1453.879395596126</v>
+        <v>1413.633129319151</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F47" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G47" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01112031231515438</v>
+        <v>0.01173055992260249</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7051934224535668</v>
+        <v>0.7183456282500907</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cromossoma 24</t>
+          <t>Cromossoma 54</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1454.236383420116</v>
+        <v>1501.421118874254</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G48" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01100201112031231</v>
+        <v>0.01160962631515298</v>
       </c>
       <c r="I48" t="n">
-        <v>0.716195433573879</v>
+        <v>0.7299552545652437</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cromossoma 42</t>
+          <t>Cromossoma 65</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1456.551805835634</v>
+        <v>1420.038981244395</v>
       </c>
       <c r="D49" t="n">
         <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F49" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G49" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01088370992547025</v>
+        <v>0.01136775910025396</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7270791434993493</v>
+        <v>0.7413230136654977</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cromossoma 4</t>
+          <t>Cromossoma 29</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1517.632608235457</v>
+        <v>1512.455930861838</v>
       </c>
       <c r="D50" t="n">
         <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F50" t="n">
         <v>83</v>
       </c>
       <c r="G50" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01088370992547025</v>
+        <v>0.01136775910025396</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7379628534248196</v>
+        <v>0.7526907727657517</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cromossoma 17</t>
+          <t>Cromossoma 63</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1456.963716193638</v>
+        <v>1426.23919641255</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G51" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01076540873062818</v>
+        <v>0.01124682549280445</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7487282621554477</v>
+        <v>0.7639375982585561</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cromossoma 73</t>
+          <t>Cromossoma 34</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1521.887952661583</v>
+        <v>1432.020376379565</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F52" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G52" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01064710753578611</v>
+        <v>0.01112589188535494</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7593753696912339</v>
+        <v>0.7750634901439111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cromossoma 49</t>
+          <t>Cromossoma 59</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1466.269475876888</v>
+        <v>1436.927064727396</v>
       </c>
       <c r="D53" t="n">
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F53" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G53" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01052880634094404</v>
+        <v>0.0106421574555569</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7699041760321779</v>
+        <v>0.7857056475994679</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cromossoma 38</t>
+          <t>Cromossoma 19</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1524.486328030174</v>
+        <v>1337.750992814147</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F54" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="G54" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01052880634094404</v>
+        <v>0.01052122384810739</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7804329823731219</v>
+        <v>0.7962268714475753</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cromossoma 61</t>
+          <t>Cromossoma 23</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1469.856236260534</v>
+        <v>1465.03656046717</v>
       </c>
       <c r="D55" t="n">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G55" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01041050514610198</v>
+        <v>0.01003748941830935</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7908434875192238</v>
+        <v>0.8062643608658847</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cromossoma 7</t>
+          <t>Cromossoma 6</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1473.732586591282</v>
+        <v>1467.223322318699</v>
       </c>
       <c r="D56" t="n">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F56" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G56" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01017390275641784</v>
+        <v>0.009916555810859838</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8010173902756417</v>
+        <v>0.8161809166767445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cromossoma 75</t>
+          <t>Cromossoma 31</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1474.576973109887</v>
+        <v>1367.451386466457</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F57" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G57" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01005560156157577</v>
+        <v>0.009795622203410327</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8110729918372175</v>
+        <v>0.8259765388801549</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cromossoma 77</t>
+          <t>Cromossoma 7</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1480.371247306452</v>
+        <v>1471.784785732982</v>
       </c>
       <c r="D58" t="n">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F58" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G58" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H58" t="n">
-        <v>0.009818999171891636</v>
+        <v>0.009674688595960818</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8208919910091091</v>
+        <v>0.8356512274761156</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cromossoma 26</t>
+          <t>Cromossoma 12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1484.35095019833</v>
+        <v>1472.649967681438</v>
       </c>
       <c r="D59" t="n">
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G59" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H59" t="n">
-        <v>0.009700697977049567</v>
+        <v>0.009432821381061798</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8305926889861587</v>
+        <v>0.8450840488571775</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cromossoma 41</t>
+          <t>Cromossoma 78</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1495.390177125059</v>
+        <v>1476.375398660656</v>
       </c>
       <c r="D60" t="n">
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F60" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H60" t="n">
-        <v>0.009345794392523364</v>
+        <v>0.009190954166162777</v>
       </c>
       <c r="I60" t="n">
-        <v>0.839938483378682</v>
+        <v>0.8542750030233403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cromossoma 56</t>
+          <t>Cromossoma 36</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1497.084036076073</v>
+        <v>1489.893017140405</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
@@ -2323,760 +2323,760 @@
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H61" t="n">
-        <v>0.00899089080799716</v>
+        <v>0.008465352521465715</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8489293741866792</v>
+        <v>0.862740355544806</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cromossoma 40</t>
+          <t>Cromossoma 76</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1499.563244393373</v>
+        <v>1405.151563647206</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F62" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G62" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H62" t="n">
-        <v>0.008872589613155093</v>
+        <v>0.008344418914016206</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8578019637998343</v>
+        <v>0.8710847744588222</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Cromossoma 44</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1516.441786732776</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15</v>
+      </c>
+      <c r="E63" t="n">
         <v>10</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Cromossoma 10</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1504.140929033275</v>
-      </c>
-      <c r="D63" t="n">
-        <v>15</v>
-      </c>
-      <c r="E63" t="n">
-        <v>13</v>
-      </c>
       <c r="F63" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G63" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H63" t="n">
-        <v>0.008754288418313026</v>
+        <v>0.007860684484218164</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8665562522181474</v>
+        <v>0.8789454589430403</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cromossoma 35</t>
+          <t>Cromossoma 55</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1511.161419036824</v>
+        <v>1416.194867534929</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F64" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G64" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H64" t="n">
-        <v>0.008517686028628889</v>
+        <v>0.007497883661869633</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8750739382467763</v>
+        <v>0.88644334260491</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cromossoma 55</t>
+          <t>Cromossoma 17</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1516.875699941966</v>
+        <v>1529.171898501958</v>
       </c>
       <c r="D65" t="n">
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
+        <v>55</v>
+      </c>
+      <c r="G65" t="n">
         <v>61</v>
       </c>
-      <c r="G65" t="n">
-        <v>71</v>
-      </c>
       <c r="H65" t="n">
-        <v>0.008399384833786822</v>
+        <v>0.007376950054420123</v>
       </c>
       <c r="I65" t="n">
-        <v>0.883473323080563</v>
+        <v>0.8938202926593301</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cromossoma 83</t>
+          <t>Cromossoma 46</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1377.984266267028</v>
+        <v>1419.966047337709</v>
       </c>
       <c r="D66" t="n">
         <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F66" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G66" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H66" t="n">
-        <v>0.008399384833786822</v>
+        <v>0.007376950054420123</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8918727079143498</v>
+        <v>0.9011972427137501</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cromossoma 52</t>
+          <t>Cromossoma 51</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1519.939137379757</v>
+        <v>1531.079504996019</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G67" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H67" t="n">
-        <v>0.008162782444102686</v>
+        <v>0.007256016446970613</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9000354903584525</v>
+        <v>0.9084532591607207</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cromossoma 27</t>
+          <t>Cromossoma 33</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1389.755820045953</v>
+        <v>1533.78594165878</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G68" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008044481249260618</v>
+        <v>0.007135082839521103</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9080799716077131</v>
+        <v>0.9155883420002419</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cromossoma 47</t>
+          <t>Cromossoma 71</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1395.889000040523</v>
+        <v>1559.157116029503</v>
       </c>
       <c r="D69" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G69" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H69" t="n">
-        <v>0.007807878859576482</v>
+        <v>0.007014149232071593</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9158878504672896</v>
+        <v>0.9226024912323134</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cromossoma 50</t>
+          <t>Cromossoma 14</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1534.877874423961</v>
+        <v>1576.905396447548</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G70" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H70" t="n">
-        <v>0.007689577664734414</v>
+        <v>0.006893215624622083</v>
       </c>
       <c r="I70" t="n">
-        <v>0.923577428132024</v>
+        <v>0.9294957068569355</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cromossoma 16</t>
+          <t>Cromossoma 77</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1402.983565594889</v>
+        <v>1434.306342921418</v>
       </c>
       <c r="D71" t="n">
         <v>16</v>
       </c>
       <c r="E71" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G71" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H71" t="n">
-        <v>0.007571276469892346</v>
+        <v>0.006772282017172573</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9311487046019163</v>
+        <v>0.9362679888741081</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cromossoma 65</t>
+          <t>Cromossoma 4</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1541.754284939055</v>
+        <v>1444.223818135345</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F72" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G72" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007571276469892346</v>
+        <v>0.006409481194824041</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9387199810718087</v>
+        <v>0.9426774700689322</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cromossoma 46</t>
+          <t>Cromossoma 45</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1421.062567168302</v>
+        <v>1452.367949898398</v>
       </c>
       <c r="D73" t="n">
         <v>16</v>
       </c>
       <c r="E73" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G73" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H73" t="n">
-        <v>0.007098071690524075</v>
+        <v>0.006167613979925021</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9458180527623328</v>
+        <v>0.9488450840488573</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cromossoma 66</t>
+          <t>Cromossoma 64</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1427.832974518617</v>
+        <v>1463.41941111457</v>
       </c>
       <c r="D74" t="n">
         <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G74" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H74" t="n">
-        <v>0.006979770495682006</v>
+        <v>0.006046680372475511</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9527978232580148</v>
+        <v>0.9548917644213327</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cromossoma 69</t>
+          <t>Cromossoma 0</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1431.891452320111</v>
+        <v>1468.531420011731</v>
       </c>
       <c r="D75" t="n">
         <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H75" t="n">
-        <v>0.006624866911155803</v>
+        <v>0.005683879550126981</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9594226901691706</v>
+        <v>0.9605756439714597</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cromossoma 80</t>
+          <t>Cromossoma 39</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1434.187040507855</v>
+        <v>1472.013834296536</v>
       </c>
       <c r="D76" t="n">
         <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F76" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G76" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H76" t="n">
-        <v>0.006506565716313735</v>
+        <v>0.00544201233522796</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9659292558854843</v>
+        <v>0.9660176563066877</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cromossoma 12</t>
+          <t>Cromossoma 68</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1440.982228084333</v>
+        <v>1473.420177085879</v>
       </c>
       <c r="D77" t="n">
         <v>16</v>
       </c>
       <c r="E77" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F77" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G77" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H77" t="n">
-        <v>0.006269963326629599</v>
+        <v>0.005200145120328939</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9721992192121138</v>
+        <v>0.9712178014270166</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cromossoma 70</t>
+          <t>Cromossoma 3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1472.472009738301</v>
+        <v>1482.867071102686</v>
       </c>
       <c r="D78" t="n">
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F78" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G78" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H78" t="n">
-        <v>0.00508695137820892</v>
+        <v>0.004837344297980409</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9772861705903227</v>
+        <v>0.9760551457249971</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cromossoma 57</t>
+          <t>Cromossoma 75</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1488.682912122733</v>
+        <v>1483.871860681375</v>
       </c>
       <c r="D79" t="n">
         <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F79" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G79" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H79" t="n">
-        <v>0.004377144209156513</v>
+        <v>0.004716410690530899</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9816633147994792</v>
+        <v>0.9807715564155279</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cromossoma 20</t>
+          <t>Cromossoma 74</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1496.113502027998</v>
+        <v>1485.33552305501</v>
       </c>
       <c r="D80" t="n">
         <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G80" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H80" t="n">
-        <v>0.004022240624630309</v>
+        <v>0.004474543475631878</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9856855554241095</v>
+        <v>0.9852460998911599</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cromossoma 36</t>
+          <t>Cromossoma 18</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1496.693860110721</v>
+        <v>1511.143402459802</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F81" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G81" t="n">
         <v>33</v>
       </c>
       <c r="H81" t="n">
-        <v>0.003903939429788241</v>
+        <v>0.003990809045833837</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9895894948538978</v>
+        <v>0.9892369089369937</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cromossoma 51</t>
+          <t>Cromossoma 30</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1509.208323942731</v>
+        <v>1520.320418406646</v>
       </c>
       <c r="D82" t="n">
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82" t="n">
-        <v>0.003430734650419969</v>
+        <v>0.003628008223485306</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9930202295043178</v>
+        <v>0.992864917160479</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cromossoma 82</t>
+          <t>Cromossoma 60</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1534.045756677422</v>
+        <v>1522.472954467305</v>
       </c>
       <c r="D83" t="n">
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G83" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H83" t="n">
-        <v>0.002602626286525494</v>
+        <v>0.003507074616035796</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9956228557908433</v>
+        <v>0.9963719917765148</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cromossoma 32</t>
+          <t>Cromossoma 10</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1550.550585345446</v>
+        <v>1579.263007237899</v>
       </c>
       <c r="D84" t="n">
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G84" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H84" t="n">
-        <v>0.00224772270199929</v>
+        <v>0.002660539363889225</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9978705784928426</v>
+        <v>0.999032531140404</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cromossoma 43</t>
+          <t>Cromossoma 61</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1560.327357589699</v>
+        <v>1528.678332359957</v>
       </c>
       <c r="D85" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E85" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" t="n">
-        <v>17</v>
-      </c>
       <c r="G85" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>0.002129421507157222</v>
+        <v>0.0009674688595960818</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/Debug/Roleta_Debug.xlsx
+++ b/Dados/Debug/Roleta_Debug.xlsx
@@ -477,46 +477,46 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cromossoma 81</t>
+          <t>Cromossoma 27</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1210.969425651885</v>
+        <v>1274.138079106776</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" t="n">
         <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02010290774201268</v>
+        <v>0.01982901923533602</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02010290774201268</v>
+        <v>0.01982901923533602</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cromossoma 13</t>
+          <t>Cromossoma 20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1286.13897636173</v>
+        <v>1289.821375846529</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -525,2416 +525,2416 @@
         <v>82</v>
       </c>
       <c r="F3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01950460691635755</v>
+        <v>0.01947280930895274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03960751465837023</v>
+        <v>0.03930182854428876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cromossoma 15</t>
+          <t>Cromossoma 76</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1321.329504750158</v>
+        <v>1298.491549808137</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01926528658609549</v>
+        <v>0.01935407266682498</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05887280124446571</v>
+        <v>0.05865590121111375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cromossoma 80</t>
+          <t>Cromossoma 73</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1354.516303127823</v>
+        <v>1312.992728038412</v>
       </c>
       <c r="D5" t="n">
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0184276654301783</v>
+        <v>0.01911659938256946</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07730046667464401</v>
+        <v>0.07777250059368321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cromossoma 12</t>
+          <t>Cromossoma 66</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1360.366874816026</v>
+        <v>1317.592657426874</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01794902476965418</v>
+        <v>0.01887912609831394</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09524949144429819</v>
+        <v>0.09665162669199714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cromossoma 4</t>
+          <t>Cromossoma 32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1360.40739994667</v>
+        <v>1323.183782516269</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01782936460452315</v>
+        <v>0.01876038945618618</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1130788560488213</v>
+        <v>0.1154120161481833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cromossoma 30</t>
+          <t>Cromossoma 71</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1370.24911376453</v>
+        <v>1326.315003969986</v>
       </c>
       <c r="D8" t="n">
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="n">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01735072394399904</v>
+        <v>0.01852291617193066</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1304295799928204</v>
+        <v>0.133934932320114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cromossoma 61</t>
+          <t>Cromossoma 55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1252.547642244188</v>
+        <v>1328.400187857577</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F9" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G9" t="n">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01723106377886802</v>
+        <v>0.0184041795298029</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1476606437716884</v>
+        <v>0.1523391118499169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cromossoma 1</t>
+          <t>Cromossoma 46</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1292.972466746348</v>
+        <v>1329.168385291661</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F10" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G10" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01699174344860596</v>
+        <v>0.01816670624554738</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1646523872202944</v>
+        <v>0.1705058180954642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cromossoma 32</t>
+          <t>Cromossoma 63</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1322.277595003258</v>
+        <v>1331.135091776353</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G11" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0167524231183439</v>
+        <v>0.01804796960341962</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1814048103386383</v>
+        <v>0.1885537876988838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cromossoma 51</t>
+          <t>Cromossoma 42</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1377.10959417888</v>
+        <v>1355.283624067468</v>
       </c>
       <c r="D12" t="n">
         <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0167524231183439</v>
+        <v>0.01745428639278081</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1981572334569822</v>
+        <v>0.2060080740916647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cromossoma 15</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1366.213466823842</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
         <v>63</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Cromossoma 63</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1326.786052625302</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="n">
-        <v>78</v>
-      </c>
       <c r="F13" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G13" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01663276295321288</v>
+        <v>0.01721681310852529</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2147899964101951</v>
+        <v>0.22322488720019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cromossoma 31</t>
+          <t>Cromossoma 61</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1385.056711460949</v>
+        <v>1373.557959850644</v>
       </c>
       <c r="D14" t="n">
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01651310278808185</v>
+        <v>0.01686060318214201</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2313030991982769</v>
+        <v>0.240085490382332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cromossoma 66</t>
+          <t>Cromossoma 72</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1386.804479398322</v>
+        <v>1375.170545784702</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F15" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01627378245781979</v>
+        <v>0.01662312989788649</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2475768816560967</v>
+        <v>0.2567086202802185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cromossoma 10</t>
+          <t>Cromossoma 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1332.110597778957</v>
+        <v>1219.115686002281</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F16" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G16" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01627378245781979</v>
+        <v>0.01626691997150321</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2638506641139165</v>
+        <v>0.2729755402517217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cromossoma 34</t>
+          <t>Cromossoma 64</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1391.679149642244</v>
+        <v>1393.934676759194</v>
       </c>
       <c r="D17" t="n">
         <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01615412229268877</v>
+        <v>0.01591071004511992</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2800047864066053</v>
+        <v>0.2888862502968416</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cromossoma 44</t>
+          <t>Cromossoma 80</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1350.781322093577</v>
+        <v>1304.785704692375</v>
       </c>
       <c r="D18" t="n">
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01615412229268877</v>
+        <v>0.01579197340299216</v>
       </c>
       <c r="I18" t="n">
-        <v>0.296158908699294</v>
+        <v>0.3046782236998337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cromossoma 47</t>
+          <t>Cromossoma 19</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1399.167094751029</v>
+        <v>1396.068264573718</v>
       </c>
       <c r="D19" t="n">
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01591480196242671</v>
+        <v>0.0156732367608644</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3120737106617207</v>
+        <v>0.3203514604606981</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cromossoma 35</t>
+          <t>Cromossoma 69</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1357.681127550906</v>
+        <v>1315.680295134722</v>
       </c>
       <c r="D20" t="n">
         <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F20" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G20" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01579514179729568</v>
+        <v>0.01555450011873664</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.3359059605794348</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cromossoma 77</t>
+          <t>Cromossoma 43</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1409.330263148135</v>
+        <v>1329.16020944486</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F21" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01579514179729568</v>
+        <v>0.01484208026597008</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3436639942563121</v>
+        <v>0.3507480408454048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cromossoma 2</t>
+          <t>Cromossoma 54</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1359.917077606149</v>
+        <v>1336.70653841647</v>
       </c>
       <c r="D22" t="n">
         <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G22" t="n">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01567548163216465</v>
+        <v>0.0144858703395868</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3593394758884768</v>
+        <v>0.3652339111849917</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cromossoma 67</t>
+          <t>Cromossoma 81</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1410.827146257315</v>
+        <v>1420.794243822951</v>
       </c>
       <c r="D23" t="n">
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01531650113677157</v>
+        <v>0.0144858703395868</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3746559770252483</v>
+        <v>0.3797197815245785</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cromossoma 56</t>
+          <t>Cromossoma 58</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1365.143368715184</v>
+        <v>1342.12041311136</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G24" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01531650113677157</v>
+        <v>0.01436713369745904</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3899724781620199</v>
+        <v>0.3940869152220375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cromossoma 48</t>
+          <t>Cromossoma 39</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1368.08592616006</v>
+        <v>1342.140751113044</v>
       </c>
       <c r="D25" t="n">
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F25" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G25" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01519684097164054</v>
+        <v>0.01424839705533128</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4051693191336604</v>
+        <v>0.4083353122773687</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cromossoma 0</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1431.551970027032</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14</v>
+      </c>
+      <c r="E26" t="n">
         <v>37</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cromossoma 37</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1370.88332061588</v>
-      </c>
-      <c r="D26" t="n">
-        <v>15</v>
-      </c>
-      <c r="E26" t="n">
-        <v>63</v>
-      </c>
       <c r="F26" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G26" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01483786047624746</v>
+        <v>0.01412966041320352</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4200071796099079</v>
+        <v>0.4224649726905723</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cromossoma 68</t>
+          <t>Cromossoma 29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1374.173927204964</v>
+        <v>1347.838120183805</v>
       </c>
       <c r="D27" t="n">
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F27" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0145985401459854</v>
+        <v>0.01412966041320352</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4346057197558933</v>
+        <v>0.4365946331037758</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cromossoma 50</t>
+          <t>Cromossoma 17</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1375.860344211297</v>
+        <v>1443.429500943633</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G28" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01447887998085437</v>
+        <v>0.01401092377107575</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4490845997367477</v>
+        <v>0.4506055568748515</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cromossoma 19</t>
+          <t>Cromossoma 38</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1440.922263065247</v>
+        <v>1358.001591654587</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F29" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01411989948546129</v>
+        <v>0.01389218712894799</v>
       </c>
       <c r="I29" t="n">
-        <v>0.463204499222209</v>
+        <v>0.4644977440037996</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cromossoma 58</t>
+          <t>Cromossoma 18</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1385.653475561501</v>
+        <v>1445.511834719134</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G30" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01400023932033026</v>
+        <v>0.01377345048682023</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4772047385425393</v>
+        <v>0.4782711944906198</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cromossoma 72</t>
+          <t>Cromossoma 56</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1397.902482825443</v>
+        <v>1366.481469601747</v>
       </c>
       <c r="D31" t="n">
         <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F31" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G31" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01364125882493718</v>
+        <v>0.01365471384469247</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4908459973674764</v>
+        <v>0.4919259083353122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cromossoma 9</t>
+          <t>Cromossoma 74</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1402.074855839972</v>
+        <v>1373.430902126607</v>
       </c>
       <c r="D32" t="n">
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F32" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G32" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01340193849467512</v>
+        <v>0.01353597720256471</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5042479358621516</v>
+        <v>0.505461885537877</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cromossoma 52</t>
+          <t>Cromossoma 26</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1408.904858587838</v>
+        <v>1456.429924196272</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F33" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G33" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01316261816441307</v>
+        <v>0.01329850391830919</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5174105540265647</v>
+        <v>0.5187603894561862</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cromossoma 7</t>
+          <t>Cromossoma 51</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1449.050756614643</v>
+        <v>1374.661890398213</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F34" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G34" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01304295799928204</v>
+        <v>0.01329850391830919</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5304535120258467</v>
+        <v>0.5320588933744954</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cromossoma 70</t>
+          <t>Cromossoma 6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1449.656256150245</v>
+        <v>1379.736141179391</v>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F35" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G35" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01292329783415101</v>
+        <v>0.01306103063405367</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5433768098599977</v>
+        <v>0.545119924008549</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cromossoma 22</t>
+          <t>Cromossoma 70</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1419.239248866766</v>
+        <v>1463.50953125514</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F36" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G36" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01268397750388896</v>
+        <v>0.01294229399192591</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5560607873638866</v>
+        <v>0.558062218000475</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cromossoma 65</t>
+          <t>Cromossoma 31</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1419.32343947061</v>
+        <v>1381.765165742312</v>
       </c>
       <c r="D37" t="n">
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F37" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G37" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01256431733875793</v>
+        <v>0.01294229399192591</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5686251047026446</v>
+        <v>0.5710045119924009</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cromossoma 40</t>
+          <t>Cromossoma 59</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1419.690872917478</v>
+        <v>1392.17395175611</v>
       </c>
       <c r="D38" t="n">
         <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F38" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G38" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0124446571736269</v>
+        <v>0.01282355734979815</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5810697618762715</v>
+        <v>0.583828069342199</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cromossoma 38</t>
+          <t>Cromossoma 67</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1422.191766797126</v>
+        <v>1464.088146353392</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F39" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G39" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01232499700849587</v>
+        <v>0.01282355734979815</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5933947588847673</v>
+        <v>0.5966516266919971</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cromossoma 0</t>
+          <t>Cromossoma 24</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1422.322139343242</v>
+        <v>1465.142367725736</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F40" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G40" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01220533684336484</v>
+        <v>0.01270482070767039</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6056000957281322</v>
+        <v>0.6093564473996675</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cromossoma 39</t>
+          <t>Cromossoma 8</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1423.739194600314</v>
+        <v>1392.88831978238</v>
       </c>
       <c r="D41" t="n">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F41" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G41" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01208567667823382</v>
+        <v>0.01270482070767039</v>
       </c>
       <c r="I41" t="n">
-        <v>0.617685772406366</v>
+        <v>0.622061268107338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cromossoma 64</t>
+          <t>Cromossoma 62</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1463.527868333379</v>
+        <v>1393.154581583152</v>
       </c>
       <c r="D42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F42" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G42" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01208567667823382</v>
+        <v>0.01258608406554263</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6297714490845998</v>
+        <v>0.6346473521728806</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cromossoma 14</t>
+          <t>Cromossoma 44</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1425.846409313839</v>
+        <v>1465.819269554238</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F43" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01196601651310279</v>
+        <v>0.01246734742341487</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6417374655977026</v>
+        <v>0.6471146995962954</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cromossoma 36</t>
+          <t>Cromossoma 68</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1432.737244033526</v>
+        <v>1466.40997225413</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F44" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01172669618284073</v>
+        <v>0.01234861078128711</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6534641617805433</v>
+        <v>0.6594633103775825</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cromossoma 33</t>
+          <t>Cromossoma 22</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1473.157343681324</v>
+        <v>1395.727396701862</v>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F45" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G45" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01172669618284073</v>
+        <v>0.01234861078128711</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6651908579633841</v>
+        <v>0.6718119211588697</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cromossoma 5</t>
+          <t>Cromossoma 30</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1473.959259581011</v>
+        <v>1467.669918638915</v>
       </c>
       <c r="D46" t="n">
         <v>14</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F46" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G46" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0116070360177097</v>
+        <v>0.01222987413915934</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6767978939810938</v>
+        <v>0.684041795298029</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cromossoma 75</t>
+          <t>Cromossoma 77</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1439.005497034725</v>
+        <v>1396.25459828313</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F47" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G47" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0116070360177097</v>
+        <v>0.01211113749703158</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6884049299988035</v>
+        <v>0.6961529327950606</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cromossoma 17</t>
+          <t>Cromossoma 11</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1475.790888522613</v>
+        <v>1472.699618233064</v>
       </c>
       <c r="D48" t="n">
         <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G48" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01148737585257868</v>
+        <v>0.01211113749703158</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6998923058513822</v>
+        <v>0.7082640702920923</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cromossoma 46</t>
+          <t>Cromossoma 21</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1440.636150637372</v>
+        <v>1399.525070977958</v>
       </c>
       <c r="D49" t="n">
         <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F49" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G49" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01148737585257868</v>
+        <v>0.01199240085490382</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7113796817039608</v>
+        <v>0.7202564711469961</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cromossoma 25</t>
+          <t>Cromossoma 45</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1327.882375050367</v>
+        <v>1472.836326682917</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F50" t="n">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G50" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01136771568744765</v>
+        <v>0.01199240085490382</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7227473973914085</v>
+        <v>0.7322488720018999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cromossoma 53</t>
+          <t>Cromossoma 34</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1332.042108203029</v>
+        <v>1401.043540819189</v>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F51" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G51" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01124805552231662</v>
+        <v>0.01187366421277606</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7339954529137251</v>
+        <v>0.7441225362146759</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cromossoma 82</t>
+          <t>Cromossoma 4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1441.621763271443</v>
+        <v>1401.401526326512</v>
       </c>
       <c r="D52" t="n">
         <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F52" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G52" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01124805552231662</v>
+        <v>0.0117549275706483</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7452435084360418</v>
+        <v>0.7558774637853243</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cromossoma 59</t>
+          <t>Cromossoma 12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1441.726187569202</v>
+        <v>1407.035774235464</v>
       </c>
       <c r="D53" t="n">
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F53" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G53" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01112839535718559</v>
+        <v>0.01151745428639278</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7563719037932274</v>
+        <v>0.767394918071717</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cromossoma 69</t>
+          <t>Cromossoma 48</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1442.567327464099</v>
+        <v>1419.302947709967</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F54" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G54" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01088907502692354</v>
+        <v>0.01127998100213726</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7672609788201509</v>
+        <v>0.7786748990738542</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cromossoma 18</t>
+          <t>Cromossoma 50</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1446.566035586098</v>
+        <v>1420.737377818827</v>
       </c>
       <c r="D55" t="n">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F55" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G55" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01076941486179251</v>
+        <v>0.0111612443600095</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7780303936819434</v>
+        <v>0.7898361434338638</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cromossoma 3</t>
+          <t>Cromossoma 75</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1503.101208199024</v>
+        <v>1424.434302641542</v>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F56" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G56" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01076941486179251</v>
+        <v>0.01092377107575398</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7887998085437359</v>
+        <v>0.8007599145096177</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cromossoma 71</t>
+          <t>Cromossoma 3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1356.707050772633</v>
+        <v>1425.602088900844</v>
       </c>
       <c r="D57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G57" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01076941486179251</v>
+        <v>0.01080503443362622</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7995692234055284</v>
+        <v>0.8115649489432439</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cromossoma 54</t>
+          <t>Cromossoma 78</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1449.690137374204</v>
+        <v>1444.50221818695</v>
       </c>
       <c r="D58" t="n">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F58" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G58" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01041043436639943</v>
+        <v>0.01044882450724294</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8099796577719278</v>
+        <v>0.8220137734504869</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cromossoma 45</t>
+          <t>Cromossoma 35</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1450.472575140541</v>
+        <v>1324.770254663571</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F59" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01017111403613737</v>
+        <v>0.01033008786511517</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8201507718080652</v>
+        <v>0.832343861315602</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cromossoma 28</t>
+          <t>Cromossoma 41</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1563.648349982609</v>
+        <v>1446.416522553136</v>
       </c>
       <c r="D60" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F60" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G60" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H60" t="n">
-        <v>0.009931793705875314</v>
+        <v>0.01021135122298741</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8300825655139404</v>
+        <v>0.8425552125385894</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cromossoma 21</t>
+          <t>Cromossoma 47</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1453.944073963614</v>
+        <v>1543.98454248645</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G61" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H61" t="n">
-        <v>0.009931793705875314</v>
+        <v>0.01021135122298741</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8400143592198157</v>
+        <v>0.8527665637615769</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cromossoma 42</t>
+          <t>Cromossoma 57</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1369.940210178644</v>
+        <v>1576.051886132532</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G62" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H62" t="n">
-        <v>0.009931793705875314</v>
+        <v>0.01009261458085965</v>
       </c>
       <c r="I62" t="n">
-        <v>0.849946152925691</v>
+        <v>0.8628591783424365</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cromossoma 6</t>
+          <t>Cromossoma 25</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1454.904760856622</v>
+        <v>1451.940701212848</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F63" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G63" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H63" t="n">
-        <v>0.009812133540744287</v>
+        <v>0.01009261458085965</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8597582864664353</v>
+        <v>0.8729517929232962</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cromossoma 43</t>
+          <t>Cromossoma 23</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1468.920717876991</v>
+        <v>1452.170452822063</v>
       </c>
       <c r="D64" t="n">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F64" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G64" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00957281321048223</v>
+        <v>0.009973877938731893</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8693310996769175</v>
+        <v>0.8829256708620281</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cromossoma 8</t>
+          <t>Cromossoma 9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1380.539651173995</v>
+        <v>1462.841550770668</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F65" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G65" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H65" t="n">
-        <v>0.009094172549958118</v>
+        <v>0.009617668012348611</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8784252722268756</v>
+        <v>0.8925433388743768</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cromossoma 24</t>
+          <t>Cromossoma 79</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1483.717763167424</v>
+        <v>1481.253662385921</v>
       </c>
       <c r="D66" t="n">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F66" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G66" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H66" t="n">
-        <v>0.008974512384827091</v>
+        <v>0.008430301591071004</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8873997846117027</v>
+        <v>0.9009736404654478</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cromossoma 20</t>
+          <t>Cromossoma 13</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1489.282825052043</v>
+        <v>1486.75018077292</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G67" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H67" t="n">
-        <v>0.008735192054565036</v>
+        <v>0.008192828306815484</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8961349766662677</v>
+        <v>0.9091664687722633</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cromossoma 76</t>
+          <t>Cromossoma 33</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1493.548082311969</v>
+        <v>1487.420824023489</v>
       </c>
       <c r="D68" t="n">
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G68" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008615531889434008</v>
+        <v>0.008074091664687722</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9047505085557017</v>
+        <v>0.917240560436951</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cromossoma 16</t>
+          <t>Cromossoma 1</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1504.473753644467</v>
+        <v>1499.813623370351</v>
       </c>
       <c r="D69" t="n">
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G69" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H69" t="n">
-        <v>0.008256551394040924</v>
+        <v>0.00771788173830444</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9130070599497426</v>
+        <v>0.9249584421752555</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cromossoma 73</t>
+          <t>Cromossoma 53</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1516.292438305556</v>
+        <v>1501.875318529548</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F70" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G70" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H70" t="n">
-        <v>0.008136891228909897</v>
+        <v>0.00759914509617668</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9211439511786526</v>
+        <v>0.9325575872714321</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cromossoma 26</t>
+          <t>Cromossoma 16</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1404.24805364682</v>
+        <v>1511.959532512278</v>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G71" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H71" t="n">
-        <v>0.008136891228909897</v>
+        <v>0.007480408454048919</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9292808424075625</v>
+        <v>0.9400379957254811</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cromossoma 60</t>
+          <t>Cromossoma 83</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1543.874358685827</v>
+        <v>1513.91903576358</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G72" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007658250568385785</v>
+        <v>0.007361671811921159</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9369390929759482</v>
+        <v>0.9473996675374022</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cromossoma 62</t>
+          <t>Cromossoma 82</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1412.932568948913</v>
+        <v>1519.628830601122</v>
       </c>
       <c r="D73" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G73" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H73" t="n">
-        <v>0.007658250568385785</v>
+        <v>0.007005461885537877</v>
       </c>
       <c r="I73" t="n">
-        <v>0.944597343544334</v>
+        <v>0.9544051294229401</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cromossoma 57</t>
+          <t>Cromossoma 5</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1372.882458931758</v>
+        <v>1543.417993500461</v>
       </c>
       <c r="D74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G74" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H74" t="n">
-        <v>0.007658250568385785</v>
+        <v>0.006886725243410117</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9522555941127198</v>
+        <v>0.9612918546663503</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cromossoma 79</t>
+          <t>Cromossoma 40</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1618.332755542851</v>
+        <v>1405.349998398815</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F75" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G75" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H75" t="n">
-        <v>0.007418930238123729</v>
+        <v>0.006767988601282355</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9596745243508434</v>
+        <v>0.9680598432676326</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cromossoma 29</t>
+          <t>Cromossoma 52</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1429.210475710702</v>
+        <v>1411.316124067568</v>
       </c>
       <c r="D76" t="n">
         <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F76" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G76" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H76" t="n">
-        <v>0.006700969247337561</v>
+        <v>0.006530515317026834</v>
       </c>
       <c r="I76" t="n">
-        <v>0.966375493598181</v>
+        <v>0.9745903585846595</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cromossoma 41</t>
+          <t>Cromossoma 14</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1442.223862967191</v>
+        <v>1459.512158474143</v>
       </c>
       <c r="D77" t="n">
         <v>16</v>
       </c>
       <c r="E77" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F77" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H77" t="n">
-        <v>0.005863348091420366</v>
+        <v>0.004868202327238186</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9722388416896014</v>
+        <v>0.9794585609118976</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cromossoma 11</t>
+          <t>Cromossoma 49</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1449.915327833377</v>
+        <v>1465.812864461991</v>
       </c>
       <c r="D78" t="n">
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F78" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H78" t="n">
-        <v>0.005145387100634199</v>
+        <v>0.004274519116599383</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9773842287902356</v>
+        <v>0.983733080028497</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cromossoma 55</t>
+          <t>Cromossoma 28</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1453.791004604195</v>
+        <v>1485.660711725866</v>
       </c>
       <c r="D79" t="n">
         <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H79" t="n">
-        <v>0.004906066770372143</v>
+        <v>0.003443362621705058</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9822902955606078</v>
+        <v>0.9871764426502021</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cromossoma 27</t>
+          <t>Cromossoma 65</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1469.401553945375</v>
+        <v>1494.403992414278</v>
       </c>
       <c r="D80" t="n">
         <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H80" t="n">
-        <v>0.004307765944717004</v>
+        <v>0.003087152695321776</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9865980615053248</v>
+        <v>0.9902635953455239</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cromossoma 49</t>
+          <t>Cromossoma 10</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1486.764902971244</v>
+        <v>1495.028591164936</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
@@ -2943,137 +2943,137 @@
         <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H81" t="n">
-        <v>0.003709465119061864</v>
+        <v>0.002968416053194016</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9903075266243867</v>
+        <v>0.9932320113987179</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cromossoma 23</t>
+          <t>Cromossoma 7</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1525.391812226194</v>
+        <v>1514.016675544369</v>
       </c>
       <c r="D82" t="n">
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G82" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>0.002871843963144669</v>
+        <v>0.002374732842555213</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9931793705875314</v>
+        <v>0.995606744241273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cromossoma 83</t>
+          <t>Cromossoma 36</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1533.027080657619</v>
+        <v>1516.590031495921</v>
       </c>
       <c r="D83" t="n">
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H83" t="n">
-        <v>0.002752183798013641</v>
+        <v>0.002255996200427452</v>
       </c>
       <c r="I83" t="n">
-        <v>0.995931554385545</v>
+        <v>0.9978627404417005</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cromossoma 78</t>
+          <t>Cromossoma 37</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1541.397813038245</v>
+        <v>1565.724874556885</v>
       </c>
       <c r="D84" t="n">
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G84" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H84" t="n">
-        <v>0.002632523632882613</v>
+        <v>0.001662312989788649</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9985640780184276</v>
+        <v>0.9995250534314892</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cromossoma 74</t>
+          <t>Cromossoma 60</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1495.613904028962</v>
+        <v>1563.754639728299</v>
       </c>
       <c r="D85" t="n">
         <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>0.001435921981572335</v>
+        <v>0.0004749465685110425</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>

--- a/Dados/Debug/Roleta_Debug.xlsx
+++ b/Dados/Debug/Roleta_Debug.xlsx
@@ -477,15 +477,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cromossoma 27</t>
+          <t>Cromossoma 51</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1274.138079106776</v>
+        <v>1293.915830202608</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
@@ -500,178 +500,178 @@
         <v>167</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01982901923533602</v>
+        <v>0.02025961421812447</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01982901923533602</v>
+        <v>0.02025961421812447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cromossoma 20</t>
+          <t>Cromossoma 28</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1289.821375846529</v>
+        <v>1302.878906987785</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" t="n">
         <v>164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01947280930895274</v>
+        <v>0.01989566905252942</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03930182854428876</v>
+        <v>0.04015528327065389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cromossoma 76</t>
+          <t>Cromossoma 17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1298.491549808137</v>
+        <v>1295.193702058407</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G4" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01935407266682498</v>
+        <v>0.01941040883173602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05865590121111375</v>
+        <v>0.05956569210238991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cromossoma 73</t>
+          <t>Cromossoma 34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1312.992728038412</v>
+        <v>1317.353021631123</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01911659938256946</v>
+        <v>0.01928909377653767</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07777250059368321</v>
+        <v>0.07885478587892758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cromossoma 66</t>
+          <t>Cromossoma 3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1317.592657426874</v>
+        <v>1304.43574589977</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G6" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01887912609831394</v>
+        <v>0.01904646366614097</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09665162669199714</v>
+        <v>0.09790124954506854</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cromossoma 32</t>
+          <t>Cromossoma 40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1323.183782516269</v>
+        <v>1335.21902339968</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F7" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01876038945618618</v>
+        <v>0.01880383355574427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1154120161481833</v>
+        <v>0.1167050831008128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cromossoma 71</t>
+          <t>Cromossoma 83</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1326.315003969986</v>
+        <v>1320.01606387169</v>
       </c>
       <c r="D8" t="n">
         <v>14</v>
@@ -680,29 +680,29 @@
         <v>74</v>
       </c>
       <c r="F8" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01852291617193066</v>
+        <v>0.01843988839014922</v>
       </c>
       <c r="I8" t="n">
-        <v>0.133934932320114</v>
+        <v>0.135144971490962</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cromossoma 55</t>
+          <t>Cromossoma 80</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1328.400187857577</v>
+        <v>1322.828226277374</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
@@ -711,246 +711,246 @@
         <v>73</v>
       </c>
       <c r="F9" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G9" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0184041795298029</v>
+        <v>0.01831857333495087</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1523391118499169</v>
+        <v>0.1534635448259129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cromossoma 46</t>
+          <t>Cromossoma 67</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1329.168385291661</v>
+        <v>1339.260642491366</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G10" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01816670624554738</v>
+        <v>0.01795462816935582</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1705058180954642</v>
+        <v>0.1714181729952687</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cromossoma 63</t>
+          <t>Cromossoma 73</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1331.135091776353</v>
+        <v>1340.884670285615</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G11" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01804796960341962</v>
+        <v>0.01783331311415747</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1885537876988838</v>
+        <v>0.1892514861094262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cromossoma 42</t>
+          <t>Cromossoma 7</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1355.283624067468</v>
+        <v>1345.607066104839</v>
       </c>
       <c r="D12" t="n">
         <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F12" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G12" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01745428639278081</v>
+        <v>0.01771199805895912</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2060080740916647</v>
+        <v>0.2069634841683853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cromossoma 15</t>
+          <t>Cromossoma 71</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1366.213466823842</v>
+        <v>1297.87129896012</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G13" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01721681310852529</v>
+        <v>0.01698410772776902</v>
       </c>
       <c r="I13" t="n">
-        <v>0.22322488720019</v>
+        <v>0.2239475918961543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cromossoma 61</t>
+          <t>Cromossoma 32</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1373.557959850644</v>
+        <v>1391.653529956294</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01686060318214201</v>
+        <v>0.01662016256217396</v>
       </c>
       <c r="I14" t="n">
-        <v>0.240085490382332</v>
+        <v>0.2405677544583283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cromossoma 72</t>
+          <t>Cromossoma 14</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1375.170545784702</v>
+        <v>1312.016945421185</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F15" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G15" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01662312989788649</v>
+        <v>0.01662016256217396</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2567086202802185</v>
+        <v>0.2571879170205023</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cromossoma 2</t>
+          <t>Cromossoma 16</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1219.115686002281</v>
+        <v>1324.287475436964</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F16" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G16" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01626691997150321</v>
+        <v>0.01589227223098387</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2729755402517217</v>
+        <v>0.2730801892514861</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cromossoma 64</t>
+          <t>Cromossoma 50</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1393.934676759194</v>
+        <v>1391.66468510753</v>
       </c>
       <c r="D17" t="n">
         <v>14</v>
@@ -959,2121 +959,2121 @@
         <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01591071004511992</v>
+        <v>0.01577095717578551</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2888862502968416</v>
+        <v>0.2888511464272717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cromossoma 80</t>
+          <t>Cromossoma 74</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1304.785704692375</v>
+        <v>1392.844557640051</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G18" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01579197340299216</v>
+        <v>0.01564964212058716</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3046782236998337</v>
+        <v>0.3045007885478588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cromossoma 19</t>
+          <t>Cromossoma 81</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1396.068264573718</v>
+        <v>1402.992058187763</v>
       </c>
       <c r="D19" t="n">
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G19" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0156732367608644</v>
+        <v>0.01528569695499211</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3203514604606981</v>
+        <v>0.3197864855028509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cromossoma 69</t>
+          <t>Cromossoma 24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1315.680295134722</v>
+        <v>1346.757468668663</v>
       </c>
       <c r="D20" t="n">
         <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F20" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G20" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01555450011873664</v>
+        <v>0.01528569695499211</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3359059605794348</v>
+        <v>0.335072182457843</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cromossoma 43</t>
+          <t>Cromossoma 37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1329.16020944486</v>
+        <v>1351.068346123225</v>
       </c>
       <c r="D21" t="n">
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F21" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G21" t="n">
         <v>125</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01484208026597008</v>
+        <v>0.01516438189979376</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3507480408454048</v>
+        <v>0.3502365643576368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cromossoma 54</t>
+          <t>Cromossoma 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1336.70653841647</v>
+        <v>1408.032288444696</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F22" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G22" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0144858703395868</v>
+        <v>0.01504306684459541</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3652339111849917</v>
+        <v>0.3652796312022322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cromossoma 81</t>
+          <t>Cromossoma 76</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1420.794243822951</v>
+        <v>1353.221881066873</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F23" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0144858703395868</v>
+        <v>0.01504306684459541</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3797197815245785</v>
+        <v>0.3803226980468276</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cromossoma 58</t>
+          <t>Cromossoma 55</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1342.12041311136</v>
+        <v>1360.603474852481</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F24" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01436713369745904</v>
+        <v>0.01492175178939706</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3940869152220375</v>
+        <v>0.3952444498362246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cromossoma 39</t>
+          <t>Cromossoma 12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1342.140751113044</v>
+        <v>1361.746815514281</v>
       </c>
       <c r="D25" t="n">
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G25" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01424839705533128</v>
+        <v>0.01480043673419871</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4083353122773687</v>
+        <v>0.4100448865704234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cromossoma 0</t>
+          <t>Cromossoma 9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1431.551970027032</v>
+        <v>1368.468602525638</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F26" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G26" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01412966041320352</v>
+        <v>0.01467912167900036</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4224649726905723</v>
+        <v>0.4247240082494237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cromossoma 29</t>
+          <t>Cromossoma 19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1347.838120183805</v>
+        <v>1378.528882981956</v>
       </c>
       <c r="D27" t="n">
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G27" t="n">
         <v>119</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01412966041320352</v>
+        <v>0.01443649156860366</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4365946331037758</v>
+        <v>0.4391604998180274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cromossoma 17</t>
+          <t>Cromossoma 8</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1443.429500943633</v>
+        <v>1420.484527832818</v>
       </c>
       <c r="D28" t="n">
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01401092377107575</v>
+        <v>0.01443649156860366</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4506055568748515</v>
+        <v>0.4535969913866311</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cromossoma 38</t>
+          <t>Cromossoma 82</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1358.001591654587</v>
+        <v>1422.626772707571</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G29" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01389218712894799</v>
+        <v>0.01431517651340531</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4644977440037996</v>
+        <v>0.4679121679000364</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cromossoma 18</t>
+          <t>Cromossoma 1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1445.511834719134</v>
+        <v>1383.284194713204</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F30" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G30" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01377345048682023</v>
+        <v>0.01431517651340531</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4782711944906198</v>
+        <v>0.4822273444134417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cromossoma 56</t>
+          <t>Cromossoma 72</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1366.481469601747</v>
+        <v>1384.331984107701</v>
       </c>
       <c r="D31" t="n">
         <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F31" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01365471384469247</v>
+        <v>0.01419386145820696</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4919259083353122</v>
+        <v>0.4964212058716486</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cromossoma 74</t>
+          <t>Cromossoma 45</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1373.430902126607</v>
+        <v>1430.960646484843</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F32" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G32" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01353597720256471</v>
+        <v>0.01407254640300861</v>
       </c>
       <c r="I32" t="n">
-        <v>0.505461885537877</v>
+        <v>0.5104937522746572</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cromossoma 26</t>
+          <t>Cromossoma 48</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1456.429924196272</v>
+        <v>1384.859014575579</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F33" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G33" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01329850391830919</v>
+        <v>0.01407254640300861</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5187603894561862</v>
+        <v>0.5245662986776658</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cromossoma 51</t>
+          <t>Cromossoma 47</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1374.661890398213</v>
+        <v>1385.1499386478</v>
       </c>
       <c r="D34" t="n">
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F34" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G34" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01329850391830919</v>
+        <v>0.01395123134781026</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5320588933744954</v>
+        <v>0.5385175300254761</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cromossoma 6</t>
+          <t>Cromossoma 27</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1379.736141179391</v>
+        <v>1391.254625900591</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F35" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G35" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01306103063405367</v>
+        <v>0.01370860123741356</v>
       </c>
       <c r="I35" t="n">
-        <v>0.545119924008549</v>
+        <v>0.5522261312628897</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cromossoma 70</t>
+          <t>Cromossoma 61</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1463.50953125514</v>
+        <v>1402.428892702821</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F36" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G36" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01294229399192591</v>
+        <v>0.01310202596142181</v>
       </c>
       <c r="I36" t="n">
-        <v>0.558062218000475</v>
+        <v>0.5653281572243115</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cromossoma 31</t>
+          <t>Cromossoma 75</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1381.765165742312</v>
+        <v>1462.386085595315</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F37" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G37" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01294229399192591</v>
+        <v>0.01310202596142181</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5710045119924009</v>
+        <v>0.5784301831857334</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cromossoma 59</t>
+          <t>Cromossoma 2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1392.17395175611</v>
+        <v>1452.512826568618</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G38" t="n">
         <v>108</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01282355734979815</v>
+        <v>0.01310202596142181</v>
       </c>
       <c r="I38" t="n">
-        <v>0.583828069342199</v>
+        <v>0.5915322091471552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cromossoma 67</t>
+          <t>Cromossoma 46</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1464.088146353392</v>
+        <v>1406.755487593515</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F39" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G39" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01282355734979815</v>
+        <v>0.01285939585102511</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5966516266919971</v>
+        <v>0.6043916049981803</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cromossoma 24</t>
+          <t>Cromossoma 57</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1465.142367725736</v>
+        <v>1408.652749938713</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F40" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G40" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01270482070767039</v>
+        <v>0.01261676574062841</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6093564473996675</v>
+        <v>0.6170083707388088</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cromossoma 8</t>
+          <t>Cromossoma 21</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1392.88831978238</v>
+        <v>1281.690569498116</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F41" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G41" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01270482070767039</v>
+        <v>0.01249545068543006</v>
       </c>
       <c r="I41" t="n">
-        <v>0.622061268107338</v>
+        <v>0.6295038214242388</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cromossoma 62</t>
+          <t>Cromossoma 11</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1393.154581583152</v>
+        <v>1414.789138269999</v>
       </c>
       <c r="D42" t="n">
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F42" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G42" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01258608406554263</v>
+        <v>0.01249545068543006</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6346473521728806</v>
+        <v>0.6419992721096688</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cromossoma 44</t>
+          <t>Cromossoma 31</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1465.819269554238</v>
+        <v>1418.472167492175</v>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F43" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G43" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01246734742341487</v>
+        <v>0.01237413563023171</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6471146995962954</v>
+        <v>0.6543734077399005</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cromossoma 68</t>
+          <t>Cromossoma 58</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1466.40997225413</v>
+        <v>1420.182762966239</v>
       </c>
       <c r="D44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F44" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G44" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01234861078128711</v>
+        <v>0.01225282057503336</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6594633103775825</v>
+        <v>0.6666262283149339</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cromossoma 22</t>
+          <t>Cromossoma 66</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1395.727396701862</v>
+        <v>1464.522404932418</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G45" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01234861078128711</v>
+        <v>0.01225282057503336</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6718119211588697</v>
+        <v>0.6788790488899673</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cromossoma 30</t>
+          <t>Cromossoma 20</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1467.669918638915</v>
+        <v>1313.513601002429</v>
       </c>
       <c r="D46" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F46" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="G46" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01222987413915934</v>
+        <v>0.01164624529904161</v>
       </c>
       <c r="I46" t="n">
-        <v>0.684041795298029</v>
+        <v>0.6905252941890089</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cromossoma 77</t>
+          <t>Cromossoma 0</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1396.25459828313</v>
+        <v>1435.150248412144</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F47" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G47" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01211113749703158</v>
+        <v>0.01164624529904161</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6961529327950606</v>
+        <v>0.7021715394880504</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cromossoma 11</t>
+          <t>Cromossoma 39</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1472.699618233064</v>
+        <v>1314.885849076852</v>
       </c>
       <c r="D48" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F48" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="G48" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01211113749703158</v>
+        <v>0.01152493024384326</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7082640702920923</v>
+        <v>0.7136964697318937</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cromossoma 21</t>
+          <t>Cromossoma 30</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1399.525070977958</v>
+        <v>1476.389820273438</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G49" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01199240085490382</v>
+        <v>0.01152493024384326</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7202564711469961</v>
+        <v>0.725221399975737</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cromossoma 45</t>
+          <t>Cromossoma 10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1472.836326682917</v>
+        <v>1441.900941912201</v>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F50" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G50" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01199240085490382</v>
+        <v>0.01152493024384326</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7322488720018999</v>
+        <v>0.7367463302195802</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cromossoma 34</t>
+          <t>Cromossoma 42</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1401.043540819189</v>
+        <v>1443.352675550698</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F51" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01187366421277606</v>
+        <v>0.01140361518864491</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7441225362146759</v>
+        <v>0.7481499454082252</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cromossoma 4</t>
+          <t>Cromossoma 69</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1401.401526326512</v>
+        <v>1447.647248775437</v>
       </c>
       <c r="D52" t="n">
         <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F52" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G52" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0117549275706483</v>
+        <v>0.01128230013344656</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7558774637853243</v>
+        <v>0.7594322455416718</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cromossoma 12</t>
+          <t>Cromossoma 35</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1407.035774235464</v>
+        <v>1483.680421817922</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G53" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01151745428639278</v>
+        <v>0.01128230013344656</v>
       </c>
       <c r="I53" t="n">
-        <v>0.767394918071717</v>
+        <v>0.7707145456751183</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cromossoma 48</t>
+          <t>Cromossoma 6</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1419.302947709967</v>
+        <v>1452.076396700039</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F54" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G54" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01127998100213726</v>
+        <v>0.01091835496785151</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7786748990738542</v>
+        <v>0.7816329006429699</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cromossoma 50</t>
+          <t>Cromossoma 52</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1420.737377818827</v>
+        <v>1459.870938525195</v>
       </c>
       <c r="D55" t="n">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F55" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G55" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0111612443600095</v>
+        <v>0.01043309474705811</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7898361434338638</v>
+        <v>0.792065995390028</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cromossoma 75</t>
+          <t>Cromossoma 56</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1424.434302641542</v>
+        <v>1461.496864379824</v>
       </c>
       <c r="D56" t="n">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F56" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G56" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01092377107575398</v>
+        <v>0.01031177969185976</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8007599145096177</v>
+        <v>0.8023777750818878</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cromossoma 3</t>
+          <t>Cromossoma 53</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1425.602088900844</v>
+        <v>1461.501680373299</v>
       </c>
       <c r="D57" t="n">
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F57" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G57" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01080503443362622</v>
+        <v>0.01019046463666141</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8115649489432439</v>
+        <v>0.8125682397185492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Cromossoma 22</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1541.473975951142</v>
+      </c>
+      <c r="D58" t="n">
+        <v>14</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" t="n">
         <v>78</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Cromossoma 78</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1444.50221818695</v>
-      </c>
-      <c r="D58" t="n">
-        <v>15</v>
-      </c>
-      <c r="E58" t="n">
-        <v>35</v>
-      </c>
-      <c r="F58" t="n">
-        <v>53</v>
-      </c>
       <c r="G58" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01044882450724294</v>
+        <v>0.01019046463666141</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8220137734504869</v>
+        <v>0.8227587043552106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cromossoma 35</t>
+          <t>Cromossoma 13</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1324.770254663571</v>
+        <v>1464.89841014299</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F59" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G59" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01033008786511517</v>
+        <v>0.00982651947106636</v>
       </c>
       <c r="I59" t="n">
-        <v>0.832343861315602</v>
+        <v>0.832585223826277</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cromossoma 41</t>
+          <t>Cromossoma 25</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1446.416522553136</v>
+        <v>1377.452644230926</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F60" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G60" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01021135122298741</v>
+        <v>0.009705204415868009</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8425552125385894</v>
+        <v>0.842290428242145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cromossoma 47</t>
+          <t>Cromossoma 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1543.98454248645</v>
+        <v>1474.51034825098</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F61" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G61" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01021135122298741</v>
+        <v>0.009462574305471309</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8527665637615769</v>
+        <v>0.8517530025476162</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cromossoma 57</t>
+          <t>Cromossoma 41</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1576.051886132532</v>
+        <v>1475.103407039656</v>
       </c>
       <c r="D62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F62" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G62" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01009261458085965</v>
+        <v>0.00934125925027296</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8628591783424365</v>
+        <v>0.8610942617978892</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cromossoma 25</t>
+          <t>Cromossoma 29</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1451.940701212848</v>
+        <v>1482.989653134426</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G63" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01009261458085965</v>
+        <v>0.009098629139876259</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8729517929232962</v>
+        <v>0.8701928909377654</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cromossoma 23</t>
+          <t>Cromossoma 64</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1452.170452822063</v>
+        <v>1386.078923510748</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F64" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G64" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H64" t="n">
-        <v>0.009973877938731893</v>
+        <v>0.008977314084677909</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8829256708620281</v>
+        <v>0.8791702050224434</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cromossoma 9</t>
+          <t>Cromossoma 60</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1462.841550770668</v>
+        <v>1488.555583909263</v>
       </c>
       <c r="D65" t="n">
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F65" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G65" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H65" t="n">
-        <v>0.009617668012348611</v>
+        <v>0.008855999029479559</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8925433388743768</v>
+        <v>0.8880262040519229</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cromossoma 79</t>
+          <t>Cromossoma 62</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1481.253662385921</v>
+        <v>1496.739082566612</v>
       </c>
       <c r="D66" t="n">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G66" t="n">
         <v>71</v>
       </c>
       <c r="H66" t="n">
-        <v>0.008430301591071004</v>
+        <v>0.008613368919082858</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9009736404654478</v>
+        <v>0.8966395729710057</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cromossoma 13</t>
+          <t>Cromossoma 63</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1486.75018077292</v>
+        <v>1498.095570644141</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F67" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G67" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H67" t="n">
-        <v>0.008192828306815484</v>
+        <v>0.008492053863884508</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9091664687722633</v>
+        <v>0.9051316268348902</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cromossoma 33</t>
+          <t>Cromossoma 38</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1487.420824023489</v>
+        <v>1401.752885585543</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F68" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G68" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008074091664687722</v>
+        <v>0.008370738808686159</v>
       </c>
       <c r="I68" t="n">
-        <v>0.917240560436951</v>
+        <v>0.9135023656435763</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cromossoma 1</t>
+          <t>Cromossoma 68</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1499.813623370351</v>
+        <v>1513.132811388662</v>
       </c>
       <c r="D69" t="n">
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G69" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00771788173830444</v>
+        <v>0.008249423753487807</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9249584421752555</v>
+        <v>0.9217517893970641</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cromossoma 53</t>
+          <t>Cromossoma 36</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1501.875318529548</v>
+        <v>1516.731159826932</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G70" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H70" t="n">
-        <v>0.00759914509617668</v>
+        <v>0.008128108698289458</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9325575872714321</v>
+        <v>0.9298798980953537</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cromossoma 16</t>
+          <t>Cromossoma 59</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1511.959532512278</v>
+        <v>1549.526412577073</v>
       </c>
       <c r="D71" t="n">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G71" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H71" t="n">
-        <v>0.007480408454048919</v>
+        <v>0.007764163532694407</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9400379957254811</v>
+        <v>0.937644061628048</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cromossoma 83</t>
+          <t>Cromossoma 23</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1513.91903576358</v>
+        <v>1589.025993295474</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G72" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007361671811921159</v>
+        <v>0.007278903311901007</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9473996675374022</v>
+        <v>0.944922964939949</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cromossoma 82</t>
+          <t>Cromossoma 70</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1519.628830601122</v>
+        <v>1449.024177512655</v>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F73" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H73" t="n">
-        <v>0.007005461885537877</v>
+        <v>0.006308382870314206</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9544051294229401</v>
+        <v>0.9512313478102632</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cromossoma 5</t>
+          <t>Cromossoma 18</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1543.417993500461</v>
+        <v>1449.262626311208</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F74" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G74" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H74" t="n">
-        <v>0.006886725243410117</v>
+        <v>0.006187067815115856</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9612918546663503</v>
+        <v>0.9574184156253791</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cromossoma 40</t>
+          <t>Cromossoma 26</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1405.349998398815</v>
+        <v>1455.576462910018</v>
       </c>
       <c r="D75" t="n">
         <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F75" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G75" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H75" t="n">
-        <v>0.006767988601282355</v>
+        <v>0.005823122649520805</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9680598432676326</v>
+        <v>0.9632415382748999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cromossoma 52</t>
+          <t>Cromossoma 33</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1411.316124067568</v>
+        <v>1456.39743660809</v>
       </c>
       <c r="D76" t="n">
         <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F76" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G76" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H76" t="n">
-        <v>0.006530515317026834</v>
+        <v>0.005701807594322456</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9745903585846595</v>
+        <v>0.9689433458692224</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cromossoma 14</t>
+          <t>Cromossoma 49</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1459.512158474143</v>
+        <v>1424.22143715858</v>
       </c>
       <c r="D77" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
         <v>41</v>
       </c>
       <c r="H77" t="n">
-        <v>0.004868202327238186</v>
+        <v>0.004973917263132355</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9794585609118976</v>
+        <v>0.9739172631323547</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cromossoma 49</t>
+          <t>Cromossoma 65</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1465.812864461991</v>
+        <v>1466.882900008875</v>
       </c>
       <c r="D78" t="n">
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G78" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H78" t="n">
-        <v>0.004274519116599383</v>
+        <v>0.004852602207934004</v>
       </c>
       <c r="I78" t="n">
-        <v>0.983733080028497</v>
+        <v>0.9787698653402888</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cromossoma 28</t>
+          <t>Cromossoma 15</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1485.660711725866</v>
+        <v>1496.186124859661</v>
       </c>
       <c r="D79" t="n">
         <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F79" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G79" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H79" t="n">
-        <v>0.003443362621705058</v>
+        <v>0.003882081766347203</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9871764426502021</v>
+        <v>0.9826519471066359</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cromossoma 65</t>
+          <t>Cromossoma 78</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1494.403992414278</v>
+        <v>1507.561679092028</v>
       </c>
       <c r="D80" t="n">
         <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H80" t="n">
-        <v>0.003087152695321776</v>
+        <v>0.003518136600752153</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9902635953455239</v>
+        <v>0.9861700837073881</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cromossoma 10</t>
+          <t>Cromossoma 54</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1495.028591164936</v>
+        <v>1524.406039738066</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H81" t="n">
-        <v>0.002968416053194016</v>
+        <v>0.003154191435157103</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9932320113987179</v>
+        <v>0.9893242751425452</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cromossoma 7</t>
+          <t>Cromossoma 79</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1514.016675544369</v>
+        <v>1555.444406965079</v>
       </c>
       <c r="D82" t="n">
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H82" t="n">
-        <v>0.002374732842555213</v>
+        <v>0.002790246269562052</v>
       </c>
       <c r="I82" t="n">
-        <v>0.995606744241273</v>
+        <v>0.9921145214121072</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cromossoma 36</t>
+          <t>Cromossoma 43</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1516.590031495921</v>
+        <v>1562.798363432855</v>
       </c>
       <c r="D83" t="n">
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G83" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H83" t="n">
-        <v>0.002255996200427452</v>
+        <v>0.002668931214363702</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9978627404417005</v>
+        <v>0.9947834526264709</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cromossoma 37</t>
+          <t>Cromossoma 77</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1565.724874556885</v>
+        <v>1473.429869140474</v>
       </c>
       <c r="D84" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E84" t="n">
+        <v>20</v>
+      </c>
+      <c r="F84" t="n">
         <v>2</v>
       </c>
-      <c r="F84" t="n">
-        <v>12</v>
-      </c>
       <c r="G84" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001662312989788649</v>
+        <v>0.002668931214363702</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9995250534314892</v>
+        <v>0.9974523838408347</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cromossoma 60</t>
+          <t>Cromossoma 44</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1563.754639728299</v>
+        <v>1580.632485299999</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0004749465685110425</v>
+        <v>0.002547616159165352</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>

--- a/Dados/Debug/Roleta_Debug.xlsx
+++ b/Dados/Debug/Roleta_Debug.xlsx
@@ -477,263 +477,263 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cromossoma 51</t>
+          <t>Cromossoma 24</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1293.915830202608</v>
+        <v>1258.155462688554</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>83</v>
       </c>
       <c r="F2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02025961421812447</v>
+        <v>0.01943566327127971</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02025961421812447</v>
+        <v>0.01943566327127971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cromossoma 28</t>
+          <t>Cromossoma 53</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1302.878906987785</v>
+        <v>1263.164564607314</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01989566905252942</v>
+        <v>0.01931858096241658</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04015528327065389</v>
+        <v>0.03875424423369629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cromossoma 17</t>
+          <t>Cromossoma 13</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1295.193702058407</v>
+        <v>1307.413874005071</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G4" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01941040883173602</v>
+        <v>0.01908441634469032</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05956569210238991</v>
+        <v>0.05783866057838661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cromossoma 34</t>
+          <t>Cromossoma 72</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1317.353021631123</v>
+        <v>1330.168363200362</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F5" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01928909377653767</v>
+        <v>0.01885025172696406</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07885478587892758</v>
+        <v>0.07668891230535066</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cromossoma 3</t>
+          <t>Cromossoma 22</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1304.43574589977</v>
+        <v>1344.523447276128</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01904646366614097</v>
+        <v>0.01849900480037466</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09790124954506854</v>
+        <v>0.09518791710572533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cromossoma 40</t>
+          <t>Cromossoma 57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1335.21902339968</v>
+        <v>1346.924943076636</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F7" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01880383355574427</v>
+        <v>0.01838192249151153</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1167050831008128</v>
+        <v>0.1135698395972369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cromossoma 83</t>
+          <t>Cromossoma 82</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1320.01606387169</v>
+        <v>1354.430168242386</v>
       </c>
       <c r="D8" t="n">
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01843988839014922</v>
+        <v>0.01814775787378527</v>
       </c>
       <c r="I8" t="n">
-        <v>0.135144971490962</v>
+        <v>0.1317175974710221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cromossoma 80</t>
+          <t>Cromossoma 23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1322.828226277374</v>
+        <v>1362.450290218126</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01831857333495087</v>
+        <v>0.01803067556492214</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1534635448259129</v>
+        <v>0.1497482730359443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cromossoma 67</t>
+          <t>Cromossoma 56</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1339.260642491366</v>
+        <v>1367.452258903949</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
@@ -742,494 +742,494 @@
         <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G10" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01795462816935582</v>
+        <v>0.01791359325605901</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1714181729952687</v>
+        <v>0.1676618662920033</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cromossoma 73</t>
+          <t>Cromossoma 76</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1340.884670285615</v>
+        <v>1371.464250490414</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G11" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01783331311415747</v>
+        <v>0.01767942863833275</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1892514861094262</v>
+        <v>0.185341294930336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cromossoma 7</t>
+          <t>Cromossoma 40</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1345.607066104839</v>
+        <v>1373.644256429958</v>
       </c>
       <c r="D12" t="n">
         <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01771199805895912</v>
+        <v>0.01744526402060649</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2069634841683853</v>
+        <v>0.2027865589509425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cromossoma 71</t>
+          <t>Cromossoma 51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1297.87129896012</v>
+        <v>1378.550347287579</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F13" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G13" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01698410772776902</v>
+        <v>0.01721109940288023</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2239475918961543</v>
+        <v>0.2199976583538227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cromossoma 32</t>
+          <t>Cromossoma 58</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1391.653529956294</v>
+        <v>1381.931015399535</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F14" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01662016256217396</v>
+        <v>0.01685985247629083</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2405677544583283</v>
+        <v>0.2368575108301136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cromossoma 0</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1382.172990947954</v>
+      </c>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cromossoma 14</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1312.016945421185</v>
-      </c>
-      <c r="D15" t="n">
-        <v>15</v>
-      </c>
       <c r="E15" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G15" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01662016256217396</v>
+        <v>0.0167427701674277</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2571879170205023</v>
+        <v>0.2536002809975413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cromossoma 16</t>
+          <t>Cromossoma 71</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1324.287475436964</v>
+        <v>1220.797969397157</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F16" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01589227223098387</v>
+        <v>0.01662568785856457</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2730801892514861</v>
+        <v>0.2702259688561058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cromossoma 50</t>
+          <t>Cromossoma 63</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1391.66468510753</v>
+        <v>1313.465141892968</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F17" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G17" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01577095717578551</v>
+        <v>0.01604027631424892</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2888511464272717</v>
+        <v>0.2862662451703548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cromossoma 74</t>
+          <t>Cromossoma 59</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1392.844557640051</v>
+        <v>1338.042257335269</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F18" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01564964212058716</v>
+        <v>0.01580611169652266</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3045007885478588</v>
+        <v>0.3020723568668774</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cromossoma 81</t>
+          <t>Cromossoma 28</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1402.992058187763</v>
+        <v>1343.663377110486</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G19" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01528569695499211</v>
+        <v>0.01568902938765953</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3197864855028509</v>
+        <v>0.3177613862545369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cromossoma 24</t>
+          <t>Cromossoma 60</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1346.757468668663</v>
+        <v>1409.717034799425</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F20" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G20" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01528569695499211</v>
+        <v>0.01510361784334387</v>
       </c>
       <c r="I20" t="n">
-        <v>0.335072182457843</v>
+        <v>0.3328650040978808</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cromossoma 37</t>
+          <t>Cromossoma 79</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1351.068346123225</v>
+        <v>1411.392727747084</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F21" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G21" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01516438189979376</v>
+        <v>0.01486945322561761</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3502365643576368</v>
+        <v>0.3477344573234984</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cromossoma 4</t>
+          <t>Cromossoma 74</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1408.032288444696</v>
+        <v>1369.494088230404</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F22" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G22" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01504306684459541</v>
+        <v>0.01486945322561761</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3652796312022322</v>
+        <v>0.362603910549116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cromossoma 76</t>
+          <t>Cromossoma 9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1353.221881066873</v>
+        <v>1372.128282460611</v>
       </c>
       <c r="D23" t="n">
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01504306684459541</v>
+        <v>0.01463528860789135</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3803226980468276</v>
+        <v>0.3772391991570074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cromossoma 55</t>
+          <t>Cromossoma 35</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1360.603474852481</v>
+        <v>1374.685505863701</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="n">
         <v>123</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01492175178939706</v>
+        <v>0.01440112399016509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3952444498362246</v>
+        <v>0.3916403231471725</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cromossoma 12</t>
+          <t>Cromossoma 64</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1361.746815514281</v>
+        <v>1428.246702605157</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G25" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01480043673419871</v>
+        <v>0.01404987706357569</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4100448865704234</v>
+        <v>0.4056902002107481</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cromossoma 9</t>
+          <t>Cromossoma 61</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1368.468602525638</v>
+        <v>1380.108853356158</v>
       </c>
       <c r="D26" t="n">
         <v>15</v>
@@ -1238,1842 +1238,1842 @@
         <v>62</v>
       </c>
       <c r="F26" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01467912167900036</v>
+        <v>0.01404987706357569</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4247240082494237</v>
+        <v>0.4197400772743238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cromossoma 19</t>
+          <t>Cromossoma 78</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1378.528882981956</v>
+        <v>1429.932469014709</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F27" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G27" t="n">
         <v>119</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01443649156860366</v>
+        <v>0.01393279475471256</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4391604998180274</v>
+        <v>0.4336728720290364</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cromossoma 8</t>
+          <t>Cromossoma 36</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1420.484527832818</v>
+        <v>1384.668357435472</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F28" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G28" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01443649156860366</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4535969913866311</v>
+        <v>0.4473715021660227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cromossoma 82</t>
+          <t>Cromossoma 29</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1422.626772707571</v>
+        <v>1385.699726011023</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F29" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01431517651340531</v>
+        <v>0.01358154782812317</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4679121679000364</v>
+        <v>0.4609530499941458</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cromossoma 1</t>
+          <t>Cromossoma 70</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1383.284194713204</v>
+        <v>1388.209088885934</v>
       </c>
       <c r="D30" t="n">
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01431517651340531</v>
+        <v>0.01346446551926004</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4822273444134417</v>
+        <v>0.4744175155134059</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cromossoma 72</t>
+          <t>Cromossoma 18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1384.331984107701</v>
+        <v>1390.011352515372</v>
       </c>
       <c r="D31" t="n">
         <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01419386145820696</v>
+        <v>0.01334738321039691</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4964212058716486</v>
+        <v>0.4877648987238028</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cromossoma 45</t>
+          <t>Cromossoma 41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1430.960646484843</v>
+        <v>1390.970913865467</v>
       </c>
       <c r="D32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F32" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01407254640300861</v>
+        <v>0.01323030090153378</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5104937522746572</v>
+        <v>0.5009951996253366</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cromossoma 48</t>
+          <t>Cromossoma 42</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1384.859014575579</v>
+        <v>1397.822130630478</v>
       </c>
       <c r="D33" t="n">
         <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F33" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01407254640300861</v>
+        <v>0.01311321859267065</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5245662986776658</v>
+        <v>0.5141084182180072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cromossoma 47</t>
+          <t>Cromossoma 44</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1385.1499386478</v>
+        <v>1399.69908564188</v>
       </c>
       <c r="D34" t="n">
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F34" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01395123134781026</v>
+        <v>0.01299613628380752</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5385175300254761</v>
+        <v>0.5271045545018147</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cromossoma 27</t>
+          <t>Cromossoma 11</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1391.254625900591</v>
+        <v>1401.026717147551</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F35" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01370860123741356</v>
+        <v>0.01287905397494439</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5522261312628897</v>
+        <v>0.5399836084767591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cromossoma 61</t>
+          <t>Cromossoma 20</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1402.428892702821</v>
+        <v>1451.610472449456</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F36" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G36" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01310202596142181</v>
+        <v>0.01287905397494439</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5653281572243115</v>
+        <v>0.5528626624517035</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cromossoma 75</t>
+          <t>Cromossoma 33</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1462.386085595315</v>
+        <v>1402.29092511053</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F37" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G37" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01310202596142181</v>
+        <v>0.01276197166608125</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5784301831857334</v>
+        <v>0.5656246341177847</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cromossoma 2</t>
+          <t>Cromossoma 46</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1452.512826568618</v>
+        <v>1451.976195572162</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F38" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G38" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01310202596142181</v>
+        <v>0.01276197166608125</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5915322091471552</v>
+        <v>0.578386605783866</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cromossoma 46</t>
+          <t>Cromossoma 55</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1406.755487593515</v>
+        <v>1405.501169108064</v>
       </c>
       <c r="D39" t="n">
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F39" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01285939585102511</v>
+        <v>0.01264488935721812</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6043916049981803</v>
+        <v>0.5910314951410841</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cromossoma 57</t>
+          <t>Cromossoma 8</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1408.652749938713</v>
+        <v>1406.595730343208</v>
       </c>
       <c r="D40" t="n">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01261676574062841</v>
+        <v>0.01252780704835499</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6170083707388088</v>
+        <v>0.6035593021894391</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cromossoma 21</t>
+          <t>Cromossoma 49</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1281.690569498116</v>
+        <v>1406.787382723093</v>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F41" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G41" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01249545068543006</v>
+        <v>0.01241072473949186</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6295038214242388</v>
+        <v>0.615970026928931</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cromossoma 11</t>
+          <t>Cromossoma 6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1414.789138269999</v>
+        <v>1408.172546050421</v>
       </c>
       <c r="D42" t="n">
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F42" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G42" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01249545068543006</v>
+        <v>0.01229364243062873</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6419992721096688</v>
+        <v>0.6282636693595597</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cromossoma 31</t>
+          <t>Cromossoma 77</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1418.472167492175</v>
+        <v>1469.633976306856</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F43" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01237413563023171</v>
+        <v>0.0121765601217656</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6543734077399005</v>
+        <v>0.6404402294813253</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cromossoma 58</t>
+          <t>Cromossoma 2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1420.182762966239</v>
+        <v>1475.217484817921</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01225282057503336</v>
+        <v>0.01205947781290247</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6666262283149339</v>
+        <v>0.6524997072942278</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cromossoma 66</t>
+          <t>Cromossoma 65</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1464.522404932418</v>
+        <v>1410.030757386952</v>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F45" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G45" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01225282057503336</v>
+        <v>0.01205947781290247</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6788790488899673</v>
+        <v>0.6645591851071303</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cromossoma 20</t>
+          <t>Cromossoma 83</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1313.513601002429</v>
+        <v>1410.088754026931</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F46" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G46" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01164624529904161</v>
+        <v>0.01194239550403934</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6905252941890089</v>
+        <v>0.6765015806111696</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cromossoma 0</t>
+          <t>Cromossoma 25</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1435.150248412144</v>
+        <v>1414.212193883911</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F47" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G47" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01164624529904161</v>
+        <v>0.01170823088631308</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7021715394880504</v>
+        <v>0.6882098114974827</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cromossoma 39</t>
+          <t>Cromossoma 43</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1314.885849076852</v>
+        <v>1424.760422311531</v>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="F48" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G48" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01152493024384326</v>
+        <v>0.01147406626858682</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7136964697318937</v>
+        <v>0.6996838777660696</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cromossoma 30</t>
+          <t>Cromossoma 15</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1476.389820273438</v>
+        <v>1484.259807153725</v>
       </c>
       <c r="D49" t="n">
         <v>14</v>
       </c>
       <c r="E49" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F49" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01152493024384326</v>
+        <v>0.01135698395972369</v>
       </c>
       <c r="I49" t="n">
-        <v>0.725221399975737</v>
+        <v>0.7110408617257933</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cromossoma 10</t>
+          <t>Cromossoma 16</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1441.900941912201</v>
+        <v>1425.404260637257</v>
       </c>
       <c r="D50" t="n">
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F50" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01152493024384326</v>
+        <v>0.01135698395972369</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7367463302195802</v>
+        <v>0.722397845685517</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cromossoma 42</t>
+          <t>Cromossoma 14</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1443.352675550698</v>
+        <v>1428.180999308006</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01140361518864491</v>
+        <v>0.01123990165086055</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7481499454082252</v>
+        <v>0.7336377473363775</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cromossoma 69</t>
+          <t>Cromossoma 3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1447.647248775437</v>
+        <v>1488.503263784041</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G52" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01128230013344656</v>
+        <v>0.01112281934199742</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7594322455416718</v>
+        <v>0.744760566678375</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cromossoma 35</t>
+          <t>Cromossoma 54</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1483.680421817922</v>
+        <v>1270.79645268163</v>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F53" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G53" t="n">
         <v>93</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01128230013344656</v>
+        <v>0.01088865472427116</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7707145456751183</v>
+        <v>0.7556492214026461</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cromossoma 6</t>
+          <t>Cromossoma 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1452.076396700039</v>
+        <v>1436.454405949466</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F54" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01091835496785151</v>
+        <v>0.01088865472427116</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7816329006429699</v>
+        <v>0.7665378761269173</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cromossoma 52</t>
+          <t>Cromossoma 21</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1459.870938525195</v>
+        <v>1437.615342962999</v>
       </c>
       <c r="D55" t="n">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F55" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G55" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01043309474705811</v>
+        <v>0.01077157241540803</v>
       </c>
       <c r="I55" t="n">
-        <v>0.792065995390028</v>
+        <v>0.7773094485423253</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cromossoma 56</t>
+          <t>Cromossoma 39</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1461.496864379824</v>
+        <v>1438.899952071488</v>
       </c>
       <c r="D56" t="n">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F56" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G56" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01031177969185976</v>
+        <v>0.0106544901065449</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8023777750818878</v>
+        <v>0.7879639386488702</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cromossoma 53</t>
+          <t>Cromossoma 50</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1461.501680373299</v>
+        <v>1512.791900001893</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G57" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01019046463666141</v>
+        <v>0.01053740779768177</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8125682397185492</v>
+        <v>0.7985013464465519</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cromossoma 22</t>
+          <t>Cromossoma 38</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1541.473975951142</v>
+        <v>1442.015640197786</v>
       </c>
       <c r="D58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F58" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G58" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01019046463666141</v>
+        <v>0.01053740779768177</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8227587043552106</v>
+        <v>0.8090387542442337</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cromossoma 13</t>
+          <t>Cromossoma 62</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1464.89841014299</v>
+        <v>1513.91418448466</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G59" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00982651947106636</v>
+        <v>0.01042032548881864</v>
       </c>
       <c r="I59" t="n">
-        <v>0.832585223826277</v>
+        <v>0.8194590797330523</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cromossoma 25</t>
+          <t>Cromossoma 27</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1377.452644230926</v>
+        <v>1445.457348595379</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F60" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G60" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="n">
-        <v>0.009705204415868009</v>
+        <v>0.01042032548881864</v>
       </c>
       <c r="I60" t="n">
-        <v>0.842290428242145</v>
+        <v>0.829879405221871</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cromossoma 5</t>
+          <t>Cromossoma 47</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1474.51034825098</v>
+        <v>1447.578635610252</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G61" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H61" t="n">
-        <v>0.009462574305471309</v>
+        <v>0.01030324317995551</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8517530025476162</v>
+        <v>0.8401826484018264</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cromossoma 41</t>
+          <t>Cromossoma 34</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1475.103407039656</v>
+        <v>1449.060109721396</v>
       </c>
       <c r="D62" t="n">
         <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F62" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G62" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00934125925027296</v>
+        <v>0.01018616087109238</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8610942617978892</v>
+        <v>0.8503688092729188</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cromossoma 29</t>
+          <t>Cromossoma 67</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1482.989653134426</v>
+        <v>1449.509449272464</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F63" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G63" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H63" t="n">
-        <v>0.009098629139876259</v>
+        <v>0.01006907856222925</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8701928909377654</v>
+        <v>0.8604378878351481</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cromossoma 64</t>
+          <t>Cromossoma 52</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1386.078923510748</v>
+        <v>1350.678935605421</v>
       </c>
       <c r="D64" t="n">
         <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F64" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H64" t="n">
-        <v>0.008977314084677909</v>
+        <v>0.009951996253366116</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8791702050224434</v>
+        <v>0.8703898840885141</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cromossoma 60</t>
+          <t>Cromossoma 7</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1488.555583909263</v>
+        <v>1452.20371323302</v>
       </c>
       <c r="D65" t="n">
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F65" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G65" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H65" t="n">
-        <v>0.008855999029479559</v>
+        <v>0.009717831635639855</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8880262040519229</v>
+        <v>0.880107715724154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cromossoma 62</t>
+          <t>Cromossoma 30</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1496.739082566612</v>
+        <v>1463.001962675017</v>
       </c>
       <c r="D66" t="n">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F66" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G66" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H66" t="n">
-        <v>0.008613368919082858</v>
+        <v>0.009483667017913594</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8966395729710057</v>
+        <v>0.8895913827420676</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cromossoma 63</t>
+          <t>Cromossoma 31</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1498.095570644141</v>
+        <v>1475.638097178263</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F67" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G67" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H67" t="n">
-        <v>0.008492053863884508</v>
+        <v>0.00901533778246107</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9051316268348902</v>
+        <v>0.8986067205245287</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cromossoma 38</t>
+          <t>Cromossoma 26</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1401.752885585543</v>
+        <v>1477.491985185871</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G68" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008370738808686159</v>
+        <v>0.008781173164734809</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9135023656435763</v>
+        <v>0.9073878936892635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cromossoma 68</t>
+          <t>Cromossoma 48</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1513.132811388662</v>
+        <v>1378.9851363771</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="F69" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H69" t="n">
-        <v>0.008249423753487807</v>
+        <v>0.008781173164734809</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9217517893970641</v>
+        <v>0.9161690668539983</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cromossoma 36</t>
+          <t>Cromossoma 4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1516.731159826932</v>
+        <v>1480.022800173836</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F70" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G70" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H70" t="n">
-        <v>0.008128108698289458</v>
+        <v>0.008664090855871678</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9298798980953537</v>
+        <v>0.9248331577098701</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cromossoma 59</t>
+          <t>Cromossoma 32</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1549.526412577073</v>
+        <v>1482.060005881544</v>
       </c>
       <c r="D71" t="n">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G71" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H71" t="n">
-        <v>0.007764163532694407</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="I71" t="n">
-        <v>0.937644061628048</v>
+        <v>0.9333801662568786</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cromossoma 23</t>
+          <t>Cromossoma 81</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1589.025993295474</v>
+        <v>1496.239189270172</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G72" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007278903311901007</v>
+        <v>0.007961597002692894</v>
       </c>
       <c r="I72" t="n">
-        <v>0.944922964939949</v>
+        <v>0.9413417632595715</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cromossoma 70</t>
+          <t>Cromossoma 19</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1449.024177512655</v>
+        <v>1498.905199353085</v>
       </c>
       <c r="D73" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G73" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H73" t="n">
-        <v>0.006308382870314206</v>
+        <v>0.007844514693829763</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9512313478102632</v>
+        <v>0.9491862779534013</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cromossoma 18</t>
+          <t>Cromossoma 68</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1449.262626311208</v>
+        <v>1519.718394030406</v>
       </c>
       <c r="D74" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G74" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H74" t="n">
-        <v>0.006187067815115856</v>
+        <v>0.007259103149514109</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9574184156253791</v>
+        <v>0.9564453811029153</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cromossoma 26</t>
+          <t>Cromossoma 69</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1455.576462910018</v>
+        <v>1521.06343330563</v>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G75" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H75" t="n">
-        <v>0.005823122649520805</v>
+        <v>0.007142020840650977</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9632415382748999</v>
+        <v>0.9635874019435663</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cromossoma 33</t>
+          <t>Cromossoma 66</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1456.39743660809</v>
+        <v>1528.018775571936</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G76" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H76" t="n">
-        <v>0.005701807594322456</v>
+        <v>0.007024938531787847</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9689433458692224</v>
+        <v>0.9706123404753542</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cromossoma 49</t>
+          <t>Cromossoma 73</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1424.22143715858</v>
+        <v>1415.397017225511</v>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H77" t="n">
-        <v>0.004973917263132355</v>
+        <v>0.006205362369745932</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9739172631323547</v>
+        <v>0.9768177028451001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cromossoma 65</t>
+          <t>Cromossoma 80</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1466.882900008875</v>
+        <v>1460.579789035702</v>
       </c>
       <c r="D78" t="n">
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F78" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H78" t="n">
-        <v>0.004852602207934004</v>
+        <v>0.004214963119072708</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9787698653402888</v>
+        <v>0.9810326659641727</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cromossoma 15</t>
+          <t>Cromossoma 75</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1496.186124859661</v>
+        <v>1469.41905046335</v>
       </c>
       <c r="D79" t="n">
         <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F79" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H79" t="n">
-        <v>0.003882081766347203</v>
+        <v>0.003980798501346447</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9826519471066359</v>
+        <v>0.9850134644655192</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cromossoma 78</t>
+          <t>Cromossoma 37</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1507.561679092028</v>
+        <v>1476.736592400702</v>
       </c>
       <c r="D80" t="n">
         <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F80" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80" t="n">
-        <v>0.003518136600752153</v>
+        <v>0.003512469265893923</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9861700837073881</v>
+        <v>0.9885259337314131</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cromossoma 54</t>
+          <t>Cromossoma 10</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1524.406039738066</v>
+        <v>1486.222733802868</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H81" t="n">
-        <v>0.003154191435157103</v>
+        <v>0.00292705772157827</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9893242751425452</v>
+        <v>0.9914529914529914</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cromossoma 79</t>
+          <t>Cromossoma 1</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1555.444406965079</v>
+        <v>1489.511405157817</v>
       </c>
       <c r="D82" t="n">
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F82" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G82" t="n">
         <v>23</v>
       </c>
       <c r="H82" t="n">
-        <v>0.002790246269562052</v>
+        <v>0.002692893103852008</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9921145214121072</v>
+        <v>0.9941458845568434</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cromossoma 43</t>
+          <t>Cromossoma 17</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1562.798363432855</v>
+        <v>1504.517832042983</v>
       </c>
       <c r="D83" t="n">
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H83" t="n">
-        <v>0.002668931214363702</v>
+        <v>0.002341646177262616</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9947834526264709</v>
+        <v>0.996487530734106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cromossoma 77</t>
+          <t>Cromossoma 45</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1473.429869140474</v>
+        <v>1514.568056234249</v>
       </c>
       <c r="D84" t="n">
+        <v>16</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12</v>
+      </c>
+      <c r="G84" t="n">
         <v>17</v>
       </c>
-      <c r="E84" t="n">
-        <v>20</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" t="n">
-        <v>22</v>
-      </c>
       <c r="H84" t="n">
-        <v>0.002668931214363702</v>
+        <v>0.001990399250673223</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9974523838408347</v>
+        <v>0.9984779299847792</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cromossoma 44</t>
+          <t>Cromossoma 12</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1580.632485299999</v>
+        <v>1530.369689696431</v>
       </c>
       <c r="D85" t="n">
         <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H85" t="n">
-        <v>0.002547616159165352</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>

--- a/Dados/Debug/Roleta_Debug.xlsx
+++ b/Dados/Debug/Roleta_Debug.xlsx
@@ -477,46 +477,46 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cromossoma 24</t>
+          <t>Cromossoma 35</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1258.155462688554</v>
+        <v>1204.455049601119</v>
       </c>
       <c r="D2" t="n">
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
         <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01943566327127971</v>
+        <v>0.01984315589353612</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01943566327127971</v>
+        <v>0.01984315589353612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cromossoma 53</t>
+          <t>Cromossoma 77</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1263.164564607314</v>
+        <v>1285.871147763819</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -531,1250 +531,1250 @@
         <v>165</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01931858096241658</v>
+        <v>0.01960551330798479</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03875424423369629</v>
+        <v>0.03944866920152092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cromossoma 13</t>
+          <t>Cromossoma 63</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1307.413874005071</v>
+        <v>1292.250136019068</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" t="n">
         <v>83</v>
       </c>
       <c r="G4" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01908441634469032</v>
+        <v>0.01948669201520913</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05783866057838661</v>
+        <v>0.05893536121673004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cromossoma 72</t>
+          <t>Cromossoma 16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1330.168363200362</v>
+        <v>1361.494334634405</v>
       </c>
       <c r="D5" t="n">
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F5" t="n">
         <v>83</v>
       </c>
       <c r="G5" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01885025172696406</v>
+        <v>0.01829847908745247</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07668891230535066</v>
+        <v>0.07723384030418251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cromossoma 22</t>
+          <t>Cromossoma 36</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1344.523447276128</v>
+        <v>1383.033898852901</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F6" t="n">
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01849900480037466</v>
+        <v>0.01770437262357414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09518791710572533</v>
+        <v>0.09493821292775666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cromossoma 57</t>
+          <t>Cromossoma 19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1346.924943076636</v>
+        <v>1383.370449409307</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F7" t="n">
         <v>83</v>
       </c>
       <c r="G7" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01838192249151153</v>
+        <v>0.01758555133079848</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1135698395972369</v>
+        <v>0.1125237642585551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cromossoma 82</t>
+          <t>Cromossoma 30</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1354.430168242386</v>
+        <v>1389.311733145348</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F8" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01814775787378527</v>
+        <v>0.01734790874524715</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1317175974710221</v>
+        <v>0.1298716730038023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cromossoma 23</t>
+          <t>Cromossoma 26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1362.450290218126</v>
+        <v>1283.666560660585</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01803067556492214</v>
+        <v>0.01699144486692015</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1497482730359443</v>
+        <v>0.1468631178707224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cromossoma 56</t>
+          <t>Cromossoma 21</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1367.452258903949</v>
+        <v>1391.062154977526</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
         <v>83</v>
       </c>
       <c r="G10" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01791359325605901</v>
+        <v>0.01699144486692015</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1676618662920033</v>
+        <v>0.1638545627376426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cromossoma 76</t>
+          <t>Cromossoma 59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1371.464250490414</v>
+        <v>1312.818536305909</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01767942863833275</v>
+        <v>0.01663498098859316</v>
       </c>
       <c r="I11" t="n">
-        <v>0.185341294930336</v>
+        <v>0.1804895437262357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cromossoma 40</t>
+          <t>Cromossoma 55</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1373.644256429958</v>
+        <v>1404.231111496964</v>
       </c>
       <c r="D12" t="n">
         <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F12" t="n">
         <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01744526402060649</v>
+        <v>0.01651615969581749</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2027865589509425</v>
+        <v>0.1970057034220532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cromossoma 51</t>
+          <t>Cromossoma 57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1378.550347287579</v>
+        <v>1315.976881852935</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F13" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01721109940288023</v>
+        <v>0.01639733840304183</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2199976583538227</v>
+        <v>0.213403041825095</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cromossoma 58</t>
+          <t>Cromossoma 47</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1381.931015399535</v>
+        <v>1404.7397740335</v>
       </c>
       <c r="D14" t="n">
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>83</v>
       </c>
       <c r="G14" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01685985247629083</v>
+        <v>0.01639733840304183</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2368575108301136</v>
+        <v>0.2298003802281369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cromossoma 0</t>
+          <t>Cromossoma 72</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1382.172990947954</v>
+        <v>1319.298831292109</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F15" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0167427701674277</v>
+        <v>0.01627851711026616</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2536002809975413</v>
+        <v>0.246078897338403</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cromossoma 71</t>
+          <t>Cromossoma 45</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1220.797969397157</v>
+        <v>1405.049663013579</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F16" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G16" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01662568785856457</v>
+        <v>0.01627851711026616</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2702259688561058</v>
+        <v>0.2623574144486692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cromossoma 63</t>
+          <t>Cromossoma 27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1313.465141892968</v>
+        <v>1336.80537066393</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01604027631424892</v>
+        <v>0.01615969581749049</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2862662451703548</v>
+        <v>0.2785171102661597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cromossoma 59</t>
+          <t>Cromossoma 68</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1338.042257335269</v>
+        <v>1341.772682503812</v>
       </c>
       <c r="D18" t="n">
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G18" t="n">
         <v>135</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01580611169652266</v>
+        <v>0.01604087452471483</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3020723568668774</v>
+        <v>0.2945579847908745</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cromossoma 28</t>
+          <t>Cromossoma 74</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1343.663377110486</v>
+        <v>1407.528805078644</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F19" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G19" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01568902938765953</v>
+        <v>0.01604087452471483</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3177613862545369</v>
+        <v>0.3105988593155893</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cromossoma 60</t>
+          <t>Cromossoma 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1409.717034799425</v>
+        <v>1411.061250211709</v>
       </c>
       <c r="D20" t="n">
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n">
         <v>83</v>
       </c>
       <c r="G20" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01510361784334387</v>
+        <v>0.01592205323193916</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3328650040978808</v>
+        <v>0.3265209125475285</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cromossoma 79</t>
+          <t>Cromossoma 0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1411.392727747084</v>
+        <v>1353.282474488098</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F21" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01486945322561761</v>
+        <v>0.01592205323193916</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3477344573234984</v>
+        <v>0.3424429657794676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cromossoma 74</t>
+          <t>Cromossoma 83</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1369.494088230404</v>
+        <v>1356.5716078829</v>
       </c>
       <c r="D22" t="n">
         <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F22" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G22" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01486945322561761</v>
+        <v>0.0158032319391635</v>
       </c>
       <c r="I22" t="n">
-        <v>0.362603910549116</v>
+        <v>0.3582461977186311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cromossoma 9</t>
+          <t>Cromossoma 14</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1372.128282460611</v>
+        <v>1418.57274171572</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G23" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01463528860789135</v>
+        <v>0.0154467680608365</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3772391991570074</v>
+        <v>0.3736929657794676</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cromossoma 35</t>
+          <t>Cromossoma 25</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1374.685505863701</v>
+        <v>1368.170833930497</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G24" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01440112399016509</v>
+        <v>0.0154467680608365</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3916403231471725</v>
+        <v>0.3891397338403041</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cromossoma 64</t>
+          <t>Cromossoma 50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1428.246702605157</v>
+        <v>1370.918888136899</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F25" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G25" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01404987706357569</v>
+        <v>0.01532794676806084</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4056902002107481</v>
+        <v>0.404467680608365</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cromossoma 61</t>
+          <t>Cromossoma 73</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1380.108853356158</v>
+        <v>1427.722727260173</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G26" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01404987706357569</v>
+        <v>0.01497148288973384</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4197400772743238</v>
+        <v>0.4194391634980988</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cromossoma 78</t>
+          <t>Cromossoma 39</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1429.932469014709</v>
+        <v>1433.686496824628</v>
       </c>
       <c r="D27" t="n">
         <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F27" t="n">
         <v>83</v>
       </c>
       <c r="G27" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01393279475471256</v>
+        <v>0.01485266159695818</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4336728720290364</v>
+        <v>0.434291825095057</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cromossoma 36</t>
+          <t>Cromossoma 64</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1384.668357435472</v>
+        <v>1386.078185338303</v>
       </c>
       <c r="D28" t="n">
         <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F28" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G28" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0136986301369863</v>
+        <v>0.01473384030418251</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4473715021660227</v>
+        <v>0.4490256653992395</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cromossoma 29</t>
+          <t>Cromossoma 48</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1385.699726011023</v>
+        <v>1386.905549092767</v>
       </c>
       <c r="D29" t="n">
         <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F29" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G29" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01358154782812317</v>
+        <v>0.01461501901140684</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4609530499941458</v>
+        <v>0.4636406844106463</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cromossoma 70</t>
+          <t>Cromossoma 65</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1388.209088885934</v>
+        <v>1390.860684407098</v>
       </c>
       <c r="D30" t="n">
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F30" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01346446551926004</v>
+        <v>0.01437737642585551</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4744175155134059</v>
+        <v>0.4780180608365018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cromossoma 18</t>
+          <t>Cromossoma 76</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1390.011352515372</v>
+        <v>1439.970901552751</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G31" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01334738321039691</v>
+        <v>0.01437737642585551</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4877648987238028</v>
+        <v>0.4923954372623573</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cromossoma 41</t>
+          <t>Cromossoma 69</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1390.970913865467</v>
+        <v>1393.666247234377</v>
       </c>
       <c r="D32" t="n">
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F32" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01323030090153378</v>
+        <v>0.01413973384030418</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5009951996253366</v>
+        <v>0.5065351711026616</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cromossoma 42</t>
+          <t>Cromossoma 38</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1397.822130630478</v>
+        <v>1444.445992749016</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F33" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G33" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01311321859267065</v>
+        <v>0.01390209125475285</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5141084182180072</v>
+        <v>0.5204372623574144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cromossoma 44</t>
+          <t>Cromossoma 79</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1399.69908564188</v>
+        <v>1456.248326058697</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F34" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G34" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01299613628380752</v>
+        <v>0.01354562737642586</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5271045545018147</v>
+        <v>0.5339828897338402</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cromossoma 11</t>
+          <t>Cromossoma 29</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1401.026717147551</v>
+        <v>1405.149097652876</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G35" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01287905397494439</v>
+        <v>0.01342680608365019</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5399836084767591</v>
+        <v>0.5474096958174904</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cromossoma 20</t>
+          <t>Cromossoma 67</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1451.610472449456</v>
+        <v>1470.323623537846</v>
       </c>
       <c r="D36" t="n">
         <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" t="n">
         <v>83</v>
       </c>
       <c r="G36" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01287905397494439</v>
+        <v>0.01318916349809886</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5528626624517035</v>
+        <v>0.5605988593155893</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cromossoma 33</t>
+          <t>Cromossoma 31</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1402.29092511053</v>
+        <v>1414.190295521018</v>
       </c>
       <c r="D37" t="n">
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G37" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01276197166608125</v>
+        <v>0.01307034220532319</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5656246341177847</v>
+        <v>0.5736692015209125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cromossoma 46</t>
+          <t>Cromossoma 61</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1451.976195572162</v>
+        <v>1415.013140239705</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F38" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G38" t="n">
         <v>109</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01276197166608125</v>
+        <v>0.01295152091254753</v>
       </c>
       <c r="I38" t="n">
-        <v>0.578386605783866</v>
+        <v>0.58662072243346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cromossoma 55</t>
+          <t>Cromossoma 66</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1405.501169108064</v>
+        <v>1417.585970206674</v>
       </c>
       <c r="D39" t="n">
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G39" t="n">
         <v>108</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01264488935721812</v>
+        <v>0.01283269961977186</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5910314951410841</v>
+        <v>0.5994534220532318</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cromossoma 8</t>
+          <t>Cromossoma 37</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1406.595730343208</v>
+        <v>1489.021294783166</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F40" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G40" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01252780704835499</v>
+        <v>0.01259505703422053</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6035593021894391</v>
+        <v>0.6120484790874523</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cromossoma 49</t>
+          <t>Cromossoma 51</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1406.787382723093</v>
+        <v>1422.223097211963</v>
       </c>
       <c r="D41" t="n">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G41" t="n">
         <v>106</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01241072473949186</v>
+        <v>0.01259505703422053</v>
       </c>
       <c r="I41" t="n">
-        <v>0.615970026928931</v>
+        <v>0.6246435361216728</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cromossoma 6</t>
+          <t>Cromossoma 53</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1408.172546050421</v>
+        <v>1493.082898730473</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F42" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G42" t="n">
         <v>105</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01229364243062873</v>
+        <v>0.01247623574144487</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6282636693595597</v>
+        <v>0.6371197718631176</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cromossoma 77</t>
+          <t>Cromossoma 3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1469.633976306856</v>
+        <v>1425.695794609507</v>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F43" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G43" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0121765601217656</v>
+        <v>0.01247623574144487</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6404402294813253</v>
+        <v>0.6495960076045625</v>
       </c>
     </row>
     <row r="44">
@@ -1787,552 +1787,552 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1475.217484817921</v>
+        <v>1507.012265421997</v>
       </c>
       <c r="D44" t="n">
         <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F44" t="n">
         <v>83</v>
       </c>
       <c r="G44" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01205947781290247</v>
+        <v>0.01188212927756654</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6524997072942278</v>
+        <v>0.661478136882129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cromossoma 65</t>
+          <t>Cromossoma 17</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1410.030757386952</v>
+        <v>1443.399580090017</v>
       </c>
       <c r="D45" t="n">
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F45" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G45" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01205947781290247</v>
+        <v>0.01152566539923954</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6645591851071303</v>
+        <v>0.6730038022813685</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cromossoma 83</t>
+          <t>Cromossoma 70</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1410.088754026931</v>
+        <v>1312.968978477166</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F46" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G46" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01194239550403934</v>
+        <v>0.01140684410646388</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6765015806111696</v>
+        <v>0.6844106463878323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cromossoma 25</t>
+          <t>Cromossoma 44</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1414.212193883911</v>
+        <v>1444.170006386978</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F47" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01170823088631308</v>
+        <v>0.01128802281368821</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6882098114974827</v>
+        <v>0.6956986692015206</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cromossoma 43</t>
+          <t>Cromossoma 18</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1424.760422311531</v>
+        <v>1447.416177570501</v>
       </c>
       <c r="D48" t="n">
         <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F48" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G48" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01147406626858682</v>
+        <v>0.01105038022813688</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6996838777660696</v>
+        <v>0.7067490494296574</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cromossoma 15</t>
+          <t>Cromossoma 6</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1484.259807153725</v>
+        <v>1532.255231278214</v>
       </c>
       <c r="D49" t="n">
         <v>14</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
         <v>83</v>
       </c>
       <c r="G49" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01135698395972369</v>
+        <v>0.01081273764258555</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7110408617257933</v>
+        <v>0.7175617870722429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cromossoma 16</t>
+          <t>Cromossoma 41</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1425.404260637257</v>
+        <v>1457.21093229779</v>
       </c>
       <c r="D50" t="n">
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G50" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01135698395972369</v>
+        <v>0.01069391634980989</v>
       </c>
       <c r="I50" t="n">
-        <v>0.722397845685517</v>
+        <v>0.7282557034220528</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cromossoma 14</t>
+          <t>Cromossoma 28</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1428.180999308006</v>
+        <v>1466.756448833617</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F51" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G51" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01123990165086055</v>
+        <v>0.01057509505703422</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7336377473363775</v>
+        <v>0.7388307984790871</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cromossoma 3</t>
+          <t>Cromossoma 15</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1488.503263784041</v>
+        <v>1357.429015464054</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F52" t="n">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01112281934199742</v>
+        <v>0.01057509505703422</v>
       </c>
       <c r="I52" t="n">
-        <v>0.744760566678375</v>
+        <v>0.7494058935361213</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cromossoma 54</t>
+          <t>Cromossoma 43</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1270.79645268163</v>
+        <v>1472.038033198439</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G53" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01088865472427116</v>
+        <v>0.01033745247148289</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7556492214026461</v>
+        <v>0.7597433460076042</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cromossoma 5</t>
+          <t>Cromossoma 11</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1436.454405949466</v>
+        <v>1474.643061588596</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F54" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G54" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01088865472427116</v>
+        <v>0.01021863117870722</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7665378761269173</v>
+        <v>0.7699619771863114</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cromossoma 21</t>
+          <t>Cromossoma 71</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1437.615342962999</v>
+        <v>1374.246946995709</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F55" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01077157241540803</v>
+        <v>0.01009980988593156</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7773094485423253</v>
+        <v>0.7800617870722429</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cromossoma 39</t>
+          <t>Cromossoma 78</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1438.899952071488</v>
+        <v>1476.430970848638</v>
       </c>
       <c r="D56" t="n">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G56" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0106544901065449</v>
+        <v>0.01009980988593156</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7879639386488702</v>
+        <v>0.7901615969581745</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cromossoma 50</t>
+          <t>Cromossoma 8</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1512.791900001893</v>
+        <v>1380.242575456962</v>
       </c>
       <c r="D57" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F57" t="n">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G57" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01053740779768177</v>
+        <v>0.009980988593155894</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7985013464465519</v>
+        <v>0.8001425855513303</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cromossoma 38</t>
+          <t>Cromossoma 13</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1442.015640197786</v>
+        <v>1486.226841717736</v>
       </c>
       <c r="D58" t="n">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F58" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G58" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01053740779768177</v>
+        <v>0.009980988593155894</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8090387542442337</v>
+        <v>0.8101235741444862</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cromossoma 62</t>
+          <t>Cromossoma 58</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1513.91418448466</v>
+        <v>1497.722824089065</v>
       </c>
       <c r="D59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G59" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01042032548881864</v>
+        <v>0.009505703422053232</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8194590797330523</v>
+        <v>0.8196292775665395</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cromossoma 27</t>
+          <t>Cromossoma 75</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1445.457348595379</v>
+        <v>1499.208324051662</v>
       </c>
       <c r="D60" t="n">
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F60" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G60" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01042032548881864</v>
+        <v>0.009386882129277567</v>
       </c>
       <c r="I60" t="n">
-        <v>0.829879405221871</v>
+        <v>0.829016159695817</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cromossoma 47</t>
+          <t>Cromossoma 12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1447.578635610252</v>
+        <v>1511.072740944468</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G61" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01030324317995551</v>
+        <v>0.009030418250950569</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8401826484018264</v>
+        <v>0.8380465779467675</v>
       </c>
     </row>
     <row r="62">
@@ -2345,720 +2345,720 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1449.060109721396</v>
+        <v>1402.110243265166</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F62" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G62" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01018616087109238</v>
+        <v>0.008911596958174905</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8503688092729188</v>
+        <v>0.8469581749049424</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cromossoma 67</t>
+          <t>Cromossoma 10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1449.509449272464</v>
+        <v>1511.40785748367</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G63" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01006907856222925</v>
+        <v>0.008911596958174905</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8604378878351481</v>
+        <v>0.8558697718631173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cromossoma 52</t>
+          <t>Cromossoma 23</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1350.678935605421</v>
+        <v>1513.028042356204</v>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F64" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G64" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H64" t="n">
-        <v>0.009951996253366116</v>
+        <v>0.00879277566539924</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8703898840885141</v>
+        <v>0.8646625475285166</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cromossoma 7</t>
+          <t>Cromossoma 42</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1452.20371323302</v>
+        <v>1402.628958799669</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F65" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G65" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H65" t="n">
-        <v>0.009717831635639855</v>
+        <v>0.00879277566539924</v>
       </c>
       <c r="I65" t="n">
-        <v>0.880107715724154</v>
+        <v>0.8734553231939158</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cromossoma 30</t>
+          <t>Cromossoma 56</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1463.001962675017</v>
+        <v>1516.343361708226</v>
       </c>
       <c r="D66" t="n">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F66" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G66" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H66" t="n">
-        <v>0.009483667017913594</v>
+        <v>0.008673954372623574</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8895913827420676</v>
+        <v>0.8821292775665394</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cromossoma 31</t>
+          <t>Cromossoma 54</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1475.638097178263</v>
+        <v>1516.682435043929</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G67" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00901533778246107</v>
+        <v>0.008555133079847909</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8986067205245287</v>
+        <v>0.8906844106463873</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cromossoma 26</t>
+          <t>Cromossoma 33</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1477.491985185871</v>
+        <v>1517.447386344933</v>
       </c>
       <c r="D68" t="n">
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G68" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008781173164734809</v>
+        <v>0.008436311787072243</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9073878936892635</v>
+        <v>0.8991207224334595</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cromossoma 48</t>
+          <t>Cromossoma 40</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1378.9851363771</v>
+        <v>1531.38368059682</v>
       </c>
       <c r="D69" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G69" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H69" t="n">
-        <v>0.008781173164734809</v>
+        <v>0.008198669201520913</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9161690668539983</v>
+        <v>0.9073193916349804</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cromossoma 4</t>
+          <t>Cromossoma 7</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1480.022800173836</v>
+        <v>1535.371151470683</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G70" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H70" t="n">
-        <v>0.008664090855871678</v>
+        <v>0.007961026615969582</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9248331577098701</v>
+        <v>0.91528041825095</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cromossoma 32</t>
+          <t>Cromossoma 46</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1482.060005881544</v>
+        <v>1552.925143851943</v>
       </c>
       <c r="D71" t="n">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G71" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H71" t="n">
-        <v>0.008547008547008548</v>
+        <v>0.007842205323193916</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9333801662568786</v>
+        <v>0.9231226235741439</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cromossoma 81</t>
+          <t>Cromossoma 49</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1496.239189270172</v>
+        <v>1557.796634437296</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G72" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007961597002692894</v>
+        <v>0.007723384030418251</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9413417632595715</v>
+        <v>0.9308460076045622</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cromossoma 19</t>
+          <t>Cromossoma 9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1498.905199353085</v>
+        <v>1572.125236027038</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G73" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H73" t="n">
-        <v>0.007844514693829763</v>
+        <v>0.00748574144486692</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9491862779534013</v>
+        <v>0.9383317490494291</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cromossoma 68</t>
+          <t>Cromossoma 60</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1519.718394030406</v>
+        <v>1600.615723050527</v>
       </c>
       <c r="D74" t="n">
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G74" t="n">
         <v>62</v>
       </c>
       <c r="H74" t="n">
-        <v>0.007259103149514109</v>
+        <v>0.007366920152091254</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9564453811029153</v>
+        <v>0.9456986692015203</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cromossoma 69</t>
+          <t>Cromossoma 1</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1521.06343330563</v>
+        <v>1427.588532726341</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F75" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G75" t="n">
         <v>61</v>
       </c>
       <c r="H75" t="n">
-        <v>0.007142020840650977</v>
+        <v>0.00724809885931559</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9635874019435663</v>
+        <v>0.9529467680608359</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cromossoma 66</t>
+          <t>Cromossoma 62</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1528.018775571936</v>
+        <v>1435.554925951562</v>
       </c>
       <c r="D76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F76" t="n">
+        <v>17</v>
+      </c>
+      <c r="G76" t="n">
         <v>58</v>
       </c>
-      <c r="G76" t="n">
-        <v>60</v>
-      </c>
       <c r="H76" t="n">
-        <v>0.007024938531787847</v>
+        <v>0.006891634980988593</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9706123404753542</v>
+        <v>0.9598384030418244</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cromossoma 73</t>
+          <t>Cromossoma 81</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1415.397017225511</v>
+        <v>1437.205400246999</v>
       </c>
       <c r="D77" t="n">
         <v>16</v>
       </c>
       <c r="E77" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G77" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H77" t="n">
-        <v>0.006205362369745932</v>
+        <v>0.006772813688212928</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9768177028451001</v>
+        <v>0.9666112167300374</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cromossoma 80</t>
+          <t>Cromossoma 20</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1460.579789035702</v>
+        <v>1443.442623889471</v>
       </c>
       <c r="D78" t="n">
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G78" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H78" t="n">
-        <v>0.004214963119072708</v>
+        <v>0.006297528517110266</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9810326659641727</v>
+        <v>0.9729087452471477</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cromossoma 75</t>
+          <t>Cromossoma 80</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1469.41905046335</v>
+        <v>1451.78665060434</v>
       </c>
       <c r="D79" t="n">
         <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F79" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G79" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H79" t="n">
-        <v>0.003980798501346447</v>
+        <v>0.005822243346007605</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9850134644655192</v>
+        <v>0.9787309885931552</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cromossoma 37</t>
+          <t>Cromossoma 24</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1476.736592400702</v>
+        <v>1437.840511715946</v>
       </c>
       <c r="D80" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E80" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F80" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H80" t="n">
-        <v>0.003512469265893923</v>
+        <v>0.004752851711026616</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9885259337314131</v>
+        <v>0.9834838403041818</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cromossoma 10</t>
+          <t>Cromossoma 52</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1486.222733802868</v>
+        <v>1495.089466102716</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G81" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H81" t="n">
-        <v>0.00292705772157827</v>
+        <v>0.004515209125475285</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9914529914529914</v>
+        <v>0.9879990494296571</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cromossoma 1</t>
+          <t>Cromossoma 32</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1489.511405157817</v>
+        <v>1501.465198344084</v>
       </c>
       <c r="D82" t="n">
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F82" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G82" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H82" t="n">
-        <v>0.002692893103852008</v>
+        <v>0.004158745247148289</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9941458845568434</v>
+        <v>0.9921577946768054</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cromossoma 17</t>
+          <t>Cromossoma 22</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1504.517832042983</v>
+        <v>1528.029327657067</v>
       </c>
       <c r="D83" t="n">
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G83" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H83" t="n">
-        <v>0.002341646177262616</v>
+        <v>0.003208174904942966</v>
       </c>
       <c r="I83" t="n">
-        <v>0.996487530734106</v>
+        <v>0.9953659695817484</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cromossoma 45</t>
+          <t>Cromossoma 82</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1514.568056234249</v>
+        <v>1563.770048306973</v>
       </c>
       <c r="D84" t="n">
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G84" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001990399250673223</v>
+        <v>0.002495247148288973</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9984779299847792</v>
+        <v>0.9978612167300374</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cromossoma 12</t>
+          <t>Cromossoma 4</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1530.369689696431</v>
+        <v>1606.942522330754</v>
       </c>
       <c r="D85" t="n">
         <v>16</v>
@@ -3067,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G85" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0015220700152207</v>
+        <v>0.002138783269961977</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/Debug/Roleta_Debug.xlsx
+++ b/Dados/Debug/Roleta_Debug.xlsx
@@ -477,77 +477,77 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cromossoma 35</t>
+          <t>Cromossoma 57</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1204.455049601119</v>
+        <v>1243.273153517953</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01984315589353612</v>
+        <v>0.01993828625682412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01984315589353612</v>
+        <v>0.01993828625682412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cromossoma 77</t>
+          <t>Cromossoma 13</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1285.871147763819</v>
+        <v>1260.625188029134</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01960551330798479</v>
+        <v>0.01981960598148588</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03944866920152092</v>
+        <v>0.03975789223830999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cromossoma 63</t>
+          <t>Cromossoma 1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1292.250136019068</v>
+        <v>1266.983128692773</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
@@ -556,649 +556,649 @@
         <v>81</v>
       </c>
       <c r="F4" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01948669201520913</v>
+        <v>0.01922620460479468</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05893536121673004</v>
+        <v>0.05898409684310468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cromossoma 16</t>
+          <t>Cromossoma 56</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1361.494334634405</v>
+        <v>1280.899379955469</v>
       </c>
       <c r="D5" t="n">
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01829847908745247</v>
+        <v>0.01910752432945645</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07723384030418251</v>
+        <v>0.07809162117256112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cromossoma 36</t>
+          <t>Cromossoma 17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1383.033898852901</v>
+        <v>1300.879055158037</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F6" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01770437262357414</v>
+        <v>0.01875148350344173</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09493821292775666</v>
+        <v>0.09684310467600285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cromossoma 19</t>
+          <t>Cromossoma 36</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1383.370449409307</v>
+        <v>1308.291884244063</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01758555133079848</v>
+        <v>0.01863280322810349</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1125237642585551</v>
+        <v>0.1154759079041063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cromossoma 30</t>
+          <t>Cromossoma 77</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1389.311733145348</v>
+        <v>1314.088033340915</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F8" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G8" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01734790874524715</v>
+        <v>0.01839544267742701</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1298716730038023</v>
+        <v>0.1338713505815333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cromossoma 26</t>
+          <t>Cromossoma 79</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1283.666560660585</v>
+        <v>1315.029287387691</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G9" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01699144486692015</v>
+        <v>0.01827676240208877</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1468631178707224</v>
+        <v>0.1521481129836221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cromossoma 21</t>
+          <t>Cromossoma 54</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1391.062154977526</v>
+        <v>1325.901931380897</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F10" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01699144486692015</v>
+        <v>0.01803940185141229</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1638545627376426</v>
+        <v>0.1701875148350344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cromossoma 59</t>
+          <t>Cromossoma 66</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1312.818536305909</v>
+        <v>1334.393374608798</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G11" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01663498098859316</v>
+        <v>0.01792072157607406</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1804895437262357</v>
+        <v>0.1881082364111085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cromossoma 55</t>
+          <t>Cromossoma 42</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1404.231111496964</v>
+        <v>1338.795248272299</v>
       </c>
       <c r="D12" t="n">
         <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F12" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01651615969581749</v>
+        <v>0.01768336102539758</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1970057034220532</v>
+        <v>0.205791597436506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cromossoma 57</t>
+          <t>Cromossoma 58</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1315.976881852935</v>
+        <v>1348.645209837135</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G13" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01639733840304183</v>
+        <v>0.01756468075005934</v>
       </c>
       <c r="I13" t="n">
-        <v>0.213403041825095</v>
+        <v>0.2233562781865654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cromossoma 47</t>
+          <t>Cromossoma 53</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1404.7397740335</v>
+        <v>1354.290079113209</v>
       </c>
       <c r="D14" t="n">
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01639733840304183</v>
+        <v>0.01732732019938286</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2298003802281369</v>
+        <v>0.2406835983859482</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cromossoma 72</t>
+          <t>Cromossoma 11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1319.298831292109</v>
+        <v>1358.689243883073</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G15" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01627851711026616</v>
+        <v>0.01720863992404462</v>
       </c>
       <c r="I15" t="n">
-        <v>0.246078897338403</v>
+        <v>0.2578922383099929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cromossoma 45</t>
+          <t>Cromossoma 21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1405.049663013579</v>
+        <v>1374.569992976387</v>
       </c>
       <c r="D16" t="n">
         <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F16" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01627851711026616</v>
+        <v>0.01661523854735343</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2623574144486692</v>
+        <v>0.2745074768573463</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cromossoma 27</t>
+          <t>Cromossoma 83</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1336.80537066393</v>
+        <v>1264.511855511265</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01615969581749049</v>
+        <v>0.01625919772133871</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2785171102661597</v>
+        <v>0.290766674578685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cromossoma 68</t>
+          <t>Cromossoma 41</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1341.772682503812</v>
+        <v>1281.59100413638</v>
       </c>
       <c r="D18" t="n">
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01604087452471483</v>
+        <v>0.015903156895324</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2945579847908745</v>
+        <v>0.306669831474009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cromossoma 74</t>
+          <t>Cromossoma 72</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1407.528805078644</v>
+        <v>1394.272489356354</v>
       </c>
       <c r="D19" t="n">
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01604087452471483</v>
+        <v>0.015903156895324</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3105988593155893</v>
+        <v>0.322572988369333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cromossoma 5</t>
+          <t>Cromossoma 33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1411.061250211709</v>
+        <v>1283.883237727033</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F20" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G20" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01592205323193916</v>
+        <v>0.01578447661998576</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3265209125475285</v>
+        <v>0.3383574649893188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cromossoma 0</t>
+          <t>Cromossoma 12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1353.282474488098</v>
+        <v>1395.454353103165</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G21" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01592205323193916</v>
+        <v>0.01566579634464752</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3424429657794676</v>
+        <v>0.3540232613339663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cromossoma 83</t>
+          <t>Cromossoma 3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1356.5716078829</v>
+        <v>1311.651709225584</v>
       </c>
       <c r="D22" t="n">
         <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G22" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0158032319391635</v>
+        <v>0.01542843579397104</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3582461977186311</v>
+        <v>0.3694516971279374</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cromossoma 14</t>
+          <t>Cromossoma 30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1418.57274171572</v>
+        <v>1396.62373910962</v>
       </c>
       <c r="D23" t="n">
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0154467680608365</v>
+        <v>0.0153097555186328</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3736929657794676</v>
+        <v>0.3847614526465701</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cromossoma 25</t>
+          <t>Cromossoma 10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1368.170833930497</v>
+        <v>1325.104367328965</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G24" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0154467680608365</v>
+        <v>0.01507239496795633</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3891397338403041</v>
+        <v>0.3998338476145264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cromossoma 50</t>
+          <t>Cromossoma 76</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1370.918888136899</v>
+        <v>1337.902631657396</v>
       </c>
       <c r="D25" t="n">
         <v>15</v>
@@ -1207,122 +1207,122 @@
         <v>69</v>
       </c>
       <c r="F25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G25" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01532794676806084</v>
+        <v>0.01471635414194161</v>
       </c>
       <c r="I25" t="n">
-        <v>0.404467680608365</v>
+        <v>0.4145502017564681</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cromossoma 73</t>
+          <t>Cromossoma 38</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1427.722727260173</v>
+        <v>1428.974147192023</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01497148288973384</v>
+        <v>0.01447899359126513</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4194391634980988</v>
+        <v>0.4290291953477332</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cromossoma 39</t>
+          <t>Cromossoma 63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1433.686496824628</v>
+        <v>1349.156527824518</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F27" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G27" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01485266159695818</v>
+        <v>0.01436031331592689</v>
       </c>
       <c r="I27" t="n">
-        <v>0.434291825095057</v>
+        <v>0.4433895086636601</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cromossoma 64</t>
+          <t>Cromossoma 62</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1386.078185338303</v>
+        <v>1424.982342304407</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G28" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01473384030418251</v>
+        <v>0.01424163304058865</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4490256653992395</v>
+        <v>0.4576311417042488</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cromossoma 48</t>
+          <t>Cromossoma 40</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1386.905549092767</v>
+        <v>1360.651546484213</v>
       </c>
       <c r="D29" t="n">
         <v>15</v>
@@ -1331,1734 +1331,1734 @@
         <v>63</v>
       </c>
       <c r="F29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01461501901140684</v>
+        <v>0.01400427248991218</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4636406844106463</v>
+        <v>0.4716354141941609</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cromossoma 65</t>
+          <t>Cromossoma 7</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1390.860684407098</v>
+        <v>1429.8445164631</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F30" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G30" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01437737642585551</v>
+        <v>0.01400427248991218</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4780180608365018</v>
+        <v>0.4856396866840731</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cromossoma 76</t>
+          <t>Cromossoma 37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1439.970901552751</v>
+        <v>1363.247151394558</v>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F31" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G31" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01437737642585551</v>
+        <v>0.01388559221457394</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4923954372623573</v>
+        <v>0.499525278898647</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cromossoma 69</t>
+          <t>Cromossoma 35</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1393.666247234377</v>
+        <v>1365.942682544884</v>
       </c>
       <c r="D32" t="n">
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G32" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01413973384030418</v>
+        <v>0.0137669119392357</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5065351711026616</v>
+        <v>0.5132921908378827</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cromossoma 38</t>
+          <t>Cromossoma 22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1444.445992749016</v>
+        <v>1373.426737009503</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G33" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01390209125475285</v>
+        <v>0.01364823166389746</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5204372623574144</v>
+        <v>0.5269404225017802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cromossoma 79</t>
+          <t>Cromossoma 51</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1456.248326058697</v>
+        <v>1437.709990287546</v>
       </c>
       <c r="D34" t="n">
         <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F34" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01354562737642586</v>
+        <v>0.01364823166389746</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5339828897338402</v>
+        <v>0.5405886541656777</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cromossoma 29</t>
+          <t>Cromossoma 34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1405.149097652876</v>
+        <v>1382.333499880932</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G35" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01342680608365019</v>
+        <v>0.01329219083788274</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5474096958174904</v>
+        <v>0.5538808450035604</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cromossoma 67</t>
+          <t>Cromossoma 32</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1470.323623537846</v>
+        <v>1385.981826972436</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F36" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G36" t="n">
         <v>111</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01318916349809886</v>
+        <v>0.01317351056254451</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5605988593155893</v>
+        <v>0.5670543555661048</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cromossoma 31</t>
+          <t>Cromossoma 9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1414.190295521018</v>
+        <v>1387.941093483424</v>
       </c>
       <c r="D37" t="n">
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G37" t="n">
         <v>110</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01307034220532319</v>
+        <v>0.01305483028720627</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5736692015209125</v>
+        <v>0.5801091858533111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cromossoma 61</t>
+          <t>Cromossoma 15</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1415.013140239705</v>
+        <v>1393.435557217382</v>
       </c>
       <c r="D38" t="n">
         <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G38" t="n">
         <v>109</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01295152091254753</v>
+        <v>0.01293615001186803</v>
       </c>
       <c r="I38" t="n">
-        <v>0.58662072243346</v>
+        <v>0.593045335865179</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cromossoma 66</t>
+          <t>Cromossoma 59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1417.585970206674</v>
+        <v>1394.382014173905</v>
       </c>
       <c r="D39" t="n">
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G39" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01283269961977186</v>
+        <v>0.01269878946119155</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5994534220532318</v>
+        <v>0.6057441253263706</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cromossoma 37</t>
+          <t>Cromossoma 6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1489.021294783166</v>
+        <v>1470.842656901827</v>
       </c>
       <c r="D40" t="n">
         <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F40" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" t="n">
         <v>106</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01259505703422053</v>
+        <v>0.01258010918585331</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6120484790874523</v>
+        <v>0.6183242345122238</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cromossoma 51</t>
+          <t>Cromossoma 18</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1422.223097211963</v>
+        <v>1395.528716689151</v>
       </c>
       <c r="D41" t="n">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G41" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01259505703422053</v>
+        <v>0.01246142891051507</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6246435361216728</v>
+        <v>0.6307856634227389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cromossoma 53</t>
+          <t>Cromossoma 23</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1493.082898730473</v>
+        <v>1396.212256503422</v>
       </c>
       <c r="D42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F42" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G42" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01247623574144487</v>
+        <v>0.01234274863517683</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6371197718631176</v>
+        <v>0.6431284120579157</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cromossoma 3</t>
+          <t>Cromossoma 29</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1425.695794609507</v>
+        <v>1399.350451997228</v>
       </c>
       <c r="D43" t="n">
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G43" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01247623574144487</v>
+        <v>0.01210538808450036</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6495960076045625</v>
+        <v>0.6552338001424161</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cromossoma 2</t>
+          <t>Cromossoma 75</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1507.012265421997</v>
+        <v>1478.7874858241</v>
       </c>
       <c r="D44" t="n">
         <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01188212927756654</v>
+        <v>0.01198670780916212</v>
       </c>
       <c r="I44" t="n">
-        <v>0.661478136882129</v>
+        <v>0.6672205079515782</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cromossoma 17</t>
+          <t>Cromossoma 14</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1443.399580090017</v>
+        <v>1408.495431984406</v>
       </c>
       <c r="D45" t="n">
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G45" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01152566539923954</v>
+        <v>0.01186802753382388</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6730038022813685</v>
+        <v>0.679088535485402</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cromossoma 70</t>
+          <t>Cromossoma 31</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1312.968978477166</v>
+        <v>1409.567079927486</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F46" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G46" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01140684410646388</v>
+        <v>0.01174934725848564</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6844106463878323</v>
+        <v>0.6908378827438877</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cromossoma 44</t>
+          <t>Cromossoma 8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1444.170006386978</v>
+        <v>1487.842839525447</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01128802281368821</v>
+        <v>0.0116306669831474</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6956986692015206</v>
+        <v>0.7024685497270351</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cromossoma 18</t>
+          <t>Cromossoma 16</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1447.416177570501</v>
+        <v>1415.788830543277</v>
       </c>
       <c r="D48" t="n">
         <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G48" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01105038022813688</v>
+        <v>0.0116306669831474</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7067490494296574</v>
+        <v>0.7140992167101825</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cromossoma 6</t>
+          <t>Cromossoma 78</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1532.255231278214</v>
+        <v>1421.145121128009</v>
       </c>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F49" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G49" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01081273764258555</v>
+        <v>0.01151198670780916</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7175617870722429</v>
+        <v>0.7256112034179917</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cromossoma 41</t>
+          <t>Cromossoma 45</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1457.21093229779</v>
+        <v>1497.11602294772</v>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G50" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01069391634980989</v>
+        <v>0.01139330643247092</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7282557034220528</v>
+        <v>0.7370045098504626</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cromossoma 28</t>
+          <t>Cromossoma 26</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1466.756448833617</v>
+        <v>1421.294334436667</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F51" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G51" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01057509505703422</v>
+        <v>0.01139330643247092</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7388307984790871</v>
+        <v>0.7483978162829336</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cromossoma 15</t>
+          <t>Cromossoma 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1357.429015464054</v>
+        <v>1497.326441025671</v>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F52" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="G52" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01057509505703422</v>
+        <v>0.01127462615713268</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7494058935361213</v>
+        <v>0.7596724424400663</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cromossoma 43</t>
+          <t>Cromossoma 39</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1472.038033198439</v>
+        <v>1498.866923534868</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G53" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01033745247148289</v>
+        <v>0.01115594588179445</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7597433460076042</v>
+        <v>0.7708283883218607</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cromossoma 11</t>
+          <t>Cromossoma 71</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1474.643061588596</v>
+        <v>1434.780735839372</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F54" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G54" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01021863117870722</v>
+        <v>0.01079990505577973</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7699619771863114</v>
+        <v>0.7816282933776405</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cromossoma 71</t>
+          <t>Cromossoma 67</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1374.246946995709</v>
+        <v>1436.056683865386</v>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F55" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G55" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01009980988593156</v>
+        <v>0.01068122478044149</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7800617870722429</v>
+        <v>0.792309518158082</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cromossoma 78</t>
+          <t>Cromossoma 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1476.430970848638</v>
+        <v>1441.10118769371</v>
       </c>
       <c r="D56" t="n">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F56" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G56" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01009980988593156</v>
+        <v>0.01044386422976501</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7901615969581745</v>
+        <v>0.8027533823878471</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cromossoma 8</t>
+          <t>Cromossoma 70</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1380.242575456962</v>
+        <v>1442.60055203395</v>
       </c>
       <c r="D57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F57" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G57" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H57" t="n">
-        <v>0.009980988593155894</v>
+        <v>0.01020650367908854</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8001425855513303</v>
+        <v>0.8129598860669356</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cromossoma 13</t>
+          <t>Cromossoma 82</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1486.226841717736</v>
+        <v>1549.030904117319</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G58" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H58" t="n">
-        <v>0.009980988593155894</v>
+        <v>0.0100878234037503</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8101235741444862</v>
+        <v>0.8230477094706858</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cromossoma 58</t>
+          <t>Cromossoma 60</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1497.722824089065</v>
+        <v>1450.564765576708</v>
       </c>
       <c r="D59" t="n">
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G59" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H59" t="n">
-        <v>0.009505703422053232</v>
+        <v>0.0100878234037503</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8196292775665395</v>
+        <v>0.8331355328744361</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cromossoma 75</t>
+          <t>Cromossoma 24</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1499.208324051662</v>
+        <v>1454.958570703164</v>
       </c>
       <c r="D60" t="n">
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F60" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H60" t="n">
-        <v>0.009386882129277567</v>
+        <v>0.009969143128412059</v>
       </c>
       <c r="I60" t="n">
-        <v>0.829016159695817</v>
+        <v>0.8431046760028481</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cromossoma 12</t>
+          <t>Cromossoma 61</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1511.072740944468</v>
+        <v>1459.301016616067</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F61" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H61" t="n">
-        <v>0.009030418250950569</v>
+        <v>0.009731782577735581</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8380465779467675</v>
+        <v>0.8528364585805837</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cromossoma 34</t>
+          <t>Cromossoma 48</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1402.110243265166</v>
+        <v>1461.102403178289</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F62" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G62" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H62" t="n">
-        <v>0.008911596958174905</v>
+        <v>0.009613102302397342</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8469581749049424</v>
+        <v>0.862449560882981</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cromossoma 10</t>
+          <t>Cromossoma 69</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1511.40785748367</v>
+        <v>1474.237129149137</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F63" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G63" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H63" t="n">
-        <v>0.008911596958174905</v>
+        <v>0.009257061476382625</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8558697718631173</v>
+        <v>0.8717066223593636</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cromossoma 23</t>
+          <t>Cromossoma 25</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1513.028042356204</v>
+        <v>1476.79605217896</v>
       </c>
       <c r="D64" t="n">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G64" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00879277566539924</v>
+        <v>0.009138381201044387</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8646625475285166</v>
+        <v>0.880845003560408</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cromossoma 42</t>
+          <t>Cromossoma 74</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1402.628958799669</v>
+        <v>1477.856845716573</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F65" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G65" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H65" t="n">
-        <v>0.00879277566539924</v>
+        <v>0.009019700925706147</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8734553231939158</v>
+        <v>0.8898647044861141</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cromossoma 56</t>
+          <t>Cromossoma 81</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1516.343361708226</v>
+        <v>1496.818656352792</v>
       </c>
       <c r="D66" t="n">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F66" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G66" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H66" t="n">
-        <v>0.008673954372623574</v>
+        <v>0.008426299549014953</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8821292775665394</v>
+        <v>0.8982910040351291</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cromossoma 54</t>
+          <t>Cromossoma 68</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1516.682435043929</v>
+        <v>1375.874936268019</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67" t="n">
+        <v>58</v>
+      </c>
+      <c r="F67" t="n">
         <v>12</v>
       </c>
-      <c r="F67" t="n">
-        <v>60</v>
-      </c>
       <c r="G67" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H67" t="n">
-        <v>0.008555133079847909</v>
+        <v>0.008307619273676715</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8906844106463873</v>
+        <v>0.9065986233088058</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cromossoma 33</t>
+          <t>Cromossoma 28</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1517.447386344933</v>
+        <v>1499.141242162711</v>
       </c>
       <c r="D68" t="n">
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G68" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008436311787072243</v>
+        <v>0.007951578447661999</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8991207224334595</v>
+        <v>0.9145502017564678</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cromossoma 40</t>
+          <t>Cromossoma 20</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1531.38368059682</v>
+        <v>1508.097311008781</v>
       </c>
       <c r="D69" t="n">
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G69" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H69" t="n">
-        <v>0.008198669201520913</v>
+        <v>0.007832898172323759</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9073193916349804</v>
+        <v>0.9223830999287916</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cromossoma 7</t>
+          <t>Cromossoma 49</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1535.371151470683</v>
+        <v>1514.274012351359</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G70" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H70" t="n">
-        <v>0.007961026615969582</v>
+        <v>0.007595537621647283</v>
       </c>
       <c r="I70" t="n">
-        <v>0.91528041825095</v>
+        <v>0.929978637550439</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cromossoma 46</t>
+          <t>Cromossoma 43</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1552.925143851943</v>
+        <v>1515.680840138876</v>
       </c>
       <c r="D71" t="n">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G71" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H71" t="n">
-        <v>0.007842205323193916</v>
+        <v>0.007476857346309043</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9231226235741439</v>
+        <v>0.9374554948967481</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cromossoma 49</t>
+          <t>Cromossoma 52</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1557.796634437296</v>
+        <v>1543.370152612923</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G72" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007723384030418251</v>
+        <v>0.007239496795632566</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9308460076045622</v>
+        <v>0.9446949916923806</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cromossoma 9</t>
+          <t>Cromossoma 46</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1572.125236027038</v>
+        <v>1546.425441685026</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
+        <v>55</v>
+      </c>
+      <c r="G73" t="n">
         <v>60</v>
       </c>
-      <c r="G73" t="n">
-        <v>63</v>
-      </c>
       <c r="H73" t="n">
-        <v>0.00748574144486692</v>
+        <v>0.007120816520294327</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9383317490494291</v>
+        <v>0.9518158082126749</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cromossoma 60</t>
+          <t>Cromossoma 0</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1600.615723050527</v>
+        <v>1556.029807110192</v>
       </c>
       <c r="D74" t="n">
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G74" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H74" t="n">
-        <v>0.007366920152091254</v>
+        <v>0.00688345596961785</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9456986692015203</v>
+        <v>0.9586992641822927</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cromossoma 1</t>
+          <t>Cromossoma 4</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1427.588532726341</v>
+        <v>1404.631345952523</v>
       </c>
       <c r="D75" t="n">
         <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G75" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H75" t="n">
-        <v>0.00724809885931559</v>
+        <v>0.00688345596961785</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9529467680608359</v>
+        <v>0.9655827201519105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cromossoma 62</t>
+          <t>Cromossoma 47</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1435.554925951562</v>
+        <v>1423.481895717787</v>
       </c>
       <c r="D76" t="n">
         <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G76" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H76" t="n">
-        <v>0.006891634980988593</v>
+        <v>0.006171374317588417</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9598384030418244</v>
+        <v>0.9717540944694989</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cromossoma 81</t>
+          <t>Cromossoma 65</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1437.205400246999</v>
+        <v>1441.585658173116</v>
       </c>
       <c r="D77" t="n">
         <v>16</v>
       </c>
       <c r="E77" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F77" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H77" t="n">
-        <v>0.006772813688212928</v>
+        <v>0.005221932114882507</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9666112167300374</v>
+        <v>0.9769760265843814</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cromossoma 20</t>
+          <t>Cromossoma 19</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1443.442623889471</v>
+        <v>1456.261994048861</v>
       </c>
       <c r="D78" t="n">
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F78" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H78" t="n">
-        <v>0.006297528517110266</v>
+        <v>0.004747211013529551</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9729087452471477</v>
+        <v>0.981723237597911</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cromossoma 80</t>
+          <t>Cromossoma 64</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1451.78665060434</v>
+        <v>1472.558577624704</v>
       </c>
       <c r="D79" t="n">
         <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F79" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H79" t="n">
-        <v>0.005822243346007605</v>
+        <v>0.004272489912176596</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9787309885931552</v>
+        <v>0.9859957275100876</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cromossoma 24</t>
+          <t>Cromossoma 50</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1437.840511715946</v>
+        <v>1480.359908350528</v>
       </c>
       <c r="D80" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H80" t="n">
-        <v>0.004752851711026616</v>
+        <v>0.003679088535485402</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9834838403041818</v>
+        <v>0.9896748160455729</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cromossoma 52</t>
+          <t>Cromossoma 44</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1495.089466102716</v>
+        <v>1511.664743127731</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H81" t="n">
-        <v>0.004515209125475285</v>
+        <v>0.002610966057441253</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9879990494296571</v>
+        <v>0.9922857821030142</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cromossoma 32</t>
+          <t>Cromossoma 27</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1501.465198344084</v>
+        <v>1486.701321212783</v>
       </c>
       <c r="D82" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82" t="n">
         <v>18</v>
       </c>
       <c r="F82" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H82" t="n">
-        <v>0.004158745247148289</v>
+        <v>0.002254925231426537</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9921577946768054</v>
+        <v>0.9945407073344408</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cromossoma 22</t>
+          <t>Cromossoma 73</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1528.029327657067</v>
+        <v>1533.459918612656</v>
       </c>
       <c r="D83" t="n">
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H83" t="n">
-        <v>0.003208174904942966</v>
+        <v>0.002254925231426537</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9953659695817484</v>
+        <v>0.9967956325658673</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cromossoma 82</t>
+          <t>Cromossoma 55</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1563.770048306973</v>
+        <v>1572.197231135136</v>
       </c>
       <c r="D84" t="n">
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G84" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H84" t="n">
-        <v>0.002495247148288973</v>
+        <v>0.001661523854735343</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9978612167300374</v>
+        <v>0.9984571564206027</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cromossoma 4</t>
+          <t>Cromossoma 80</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1606.942522330754</v>
+        <v>1576.607629140081</v>
       </c>
       <c r="D85" t="n">
         <v>16</v>
@@ -3067,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H85" t="n">
-        <v>0.002138783269961977</v>
+        <v>0.001542843579397104</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/Debug/Roleta_Debug.xlsx
+++ b/Dados/Debug/Roleta_Debug.xlsx
@@ -477,2606 +477,2606 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cromossoma 77</t>
+          <t>Cromossoma 81</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1218.154940852684</v>
+        <v>1279.651252206585</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01961013190148243</v>
+        <v>0.01956367085605881</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01961013190148243</v>
+        <v>0.01956367085605881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cromossoma 12</t>
+          <t>Cromossoma 19</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1268.303781991268</v>
+        <v>1299.319717783898</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01902649702346212</v>
+        <v>0.01920796774958501</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03863662892494456</v>
+        <v>0.03877163860564382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cromossoma 50</t>
+          <t>Cromossoma 37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1278.505946737374</v>
+        <v>1316.512886550307</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01890977004785806</v>
+        <v>0.01885226464311122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05754639897280261</v>
+        <v>0.05762390324875504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cromossoma 0</t>
+          <t>Cromossoma 67</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1286.185082974092</v>
+        <v>1330.518627062995</v>
       </c>
       <c r="D5" t="n">
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H5" t="n">
-        <v>0.018793043072254</v>
+        <v>0.01849656153663742</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0763394420450566</v>
+        <v>0.07612046478539246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cromossoma 43</t>
+          <t>Cromossoma 53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1288.899582374677</v>
+        <v>1331.773742819605</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01867631609664994</v>
+        <v>0.01837799383447949</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09501575814170654</v>
+        <v>0.09449845861987194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cromossoma 8</t>
+          <t>Cromossoma 24</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1297.591354718633</v>
+        <v>1339.669634887217</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01855958912104587</v>
+        <v>0.01814085843016362</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1135753472627524</v>
+        <v>0.1126393170500356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cromossoma 39</t>
+          <t>Cromossoma 38</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1308.826760008837</v>
+        <v>1348.939566088097</v>
       </c>
       <c r="D8" t="n">
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F8" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01844286214544181</v>
+        <v>0.01802229072800569</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1320182094081942</v>
+        <v>0.1306616077780413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cromossoma 25</t>
+          <t>Cromossoma 48</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1324.608716841779</v>
+        <v>1362.415946264338</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F9" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01832613516983775</v>
+        <v>0.0176665876215319</v>
       </c>
       <c r="I9" t="n">
-        <v>0.150344344578032</v>
+        <v>0.1483281953995731</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cromossoma 35</t>
+          <t>Cromossoma 14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1309.720183132299</v>
+        <v>1363.804557697038</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01832613516983775</v>
+        <v>0.01754801991937396</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1686704797478697</v>
+        <v>0.1658762153189471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cromossoma 63</t>
+          <t>Cromossoma 26</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1321.966442094602</v>
+        <v>1383.31280025286</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01820940819423369</v>
+        <v>0.01707374911074223</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1868798879421034</v>
+        <v>0.1829499644296894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cromossoma 51</t>
+          <t>Cromossoma 36</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1324.944721361115</v>
+        <v>1208.635401481333</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F12" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G12" t="n">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0178592272674215</v>
+        <v>0.01683661370642637</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2047391152095249</v>
+        <v>0.1997865781361157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cromossoma 14</t>
+          <t>Cromossoma 70</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1335.130825791679</v>
+        <v>1387.272969123281</v>
       </c>
       <c r="D13" t="n">
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F13" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01774250029181744</v>
+        <v>0.01683661370642637</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2224816155013424</v>
+        <v>0.2166231918425421</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cromossoma 46</t>
+          <t>Cromossoma 60</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1336.999748808288</v>
+        <v>1275.172781818489</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F14" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G14" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01762577331621338</v>
+        <v>0.01671804600426844</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2401073888175558</v>
+        <v>0.2333412378468105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cromossoma 45</t>
+          <t>Cromossoma 7</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1339.751255848738</v>
+        <v>1388.028324839592</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F15" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01750904634060932</v>
+        <v>0.01671804600426844</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2576164351581651</v>
+        <v>0.250059283851079</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cromossoma 65</t>
+          <t>Cromossoma 43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1341.441455094949</v>
+        <v>1390.223374215907</v>
       </c>
       <c r="D16" t="n">
         <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F16" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01739231936500525</v>
+        <v>0.01648091059995257</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2750087545231703</v>
+        <v>0.2665401944510315</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cromossoma 66</t>
+          <t>Cromossoma 12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1351.376148712408</v>
+        <v>1286.204112350967</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F17" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G17" t="n">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01715886541379713</v>
+        <v>0.01648091059995257</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2921676199369674</v>
+        <v>0.283021105050984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cromossoma 56</t>
+          <t>Cromossoma 80</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1362.973596965572</v>
+        <v>1392.462815759506</v>
       </c>
       <c r="D18" t="n">
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F18" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H18" t="n">
-        <v>0.016925411462589</v>
+        <v>0.01636234289779464</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3090930313995565</v>
+        <v>0.2993834479487787</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cromossoma 2</t>
+          <t>Cromossoma 28</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1372.275048951675</v>
+        <v>1290.398760081968</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G19" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01669195751138088</v>
+        <v>0.01636234289779464</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3257849889109373</v>
+        <v>0.3157457908465733</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cromossoma 72</t>
+          <t>Cromossoma 6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1394.802543068137</v>
+        <v>1304.705514031439</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F20" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G20" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01575814170654838</v>
+        <v>0.01612520749347878</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3415431306174857</v>
+        <v>0.3318709983400521</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cromossoma 67</t>
+          <t>Cromossoma 82</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1261.959695595079</v>
+        <v>1304.837231399792</v>
       </c>
       <c r="D21" t="n">
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F21" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G21" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01564141473094432</v>
+        <v>0.01600663979132085</v>
       </c>
       <c r="I21" t="n">
-        <v>0.35718454534843</v>
+        <v>0.347877638131373</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cromossoma 49</t>
+          <t>Cromossoma 16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1264.34331934901</v>
+        <v>1413.580058772951</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F22" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G22" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01552468775534026</v>
+        <v>0.01565093668484705</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3727092331037703</v>
+        <v>0.36352857481622</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cromossoma 70</t>
+          <t>Cromossoma 59</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1399.171581931937</v>
+        <v>1321.591457465627</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F23" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G23" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01552468775534026</v>
+        <v>0.01565093668484705</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3882339208591106</v>
+        <v>0.3791795115010671</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cromossoma 47</t>
+          <t>Cromossoma 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1411.7082464062</v>
+        <v>1425.65212595043</v>
       </c>
       <c r="D24" t="n">
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="n">
         <v>129</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01505777985292401</v>
+        <v>0.01529523357837325</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4032917007120346</v>
+        <v>0.3944747450794404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cromossoma 74</t>
+          <t>Cromossoma 35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1418.661329610562</v>
+        <v>1334.761459089233</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F25" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G25" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01459087195050776</v>
+        <v>0.01529523357837325</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4178825726625424</v>
+        <v>0.4097699786578136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cromossoma 9</t>
+          <t>Cromossoma 76</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1419.074592395752</v>
+        <v>1352.28711269518</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F26" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G26" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0144741449749037</v>
+        <v>0.01493953047189945</v>
       </c>
       <c r="I26" t="n">
-        <v>0.432356717637446</v>
+        <v>0.4247095091297131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cromossoma 68</t>
+          <t>Cromossoma 52</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1324.651207358824</v>
+        <v>1426.820368317882</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G27" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01435741799929964</v>
+        <v>0.01493953047189945</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4467141356367457</v>
+        <v>0.4396490396016125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cromossoma 11</t>
+          <t>Cromossoma 62</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1426.275822400434</v>
+        <v>1355.237670950146</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F28" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G28" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01424069102369558</v>
+        <v>0.01482096276974152</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4609548266604412</v>
+        <v>0.454470002371354</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cromossoma 29</t>
+          <t>Cromossoma 4</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1427.538686022196</v>
+        <v>1370.608579945966</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F29" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01412396404809151</v>
+        <v>0.01446525966326773</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4750787907085328</v>
+        <v>0.4689352620346218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cromossoma 23</t>
+          <t>Cromossoma 61</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1345.013841492383</v>
+        <v>1375.712975682752</v>
       </c>
       <c r="D30" t="n">
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F30" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01365705614567527</v>
+        <v>0.01422812425895186</v>
       </c>
       <c r="I30" t="n">
-        <v>0.488735846854208</v>
+        <v>0.4831633862935736</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cromossoma 57</t>
+          <t>Cromossoma 25</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1435.632274905618</v>
+        <v>1383.72638324645</v>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F31" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01365705614567527</v>
+        <v>0.013990988854636</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5023929029998833</v>
+        <v>0.4971543751482096</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cromossoma 81</t>
+          <t>Cromossoma 55</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1357.648607797804</v>
+        <v>1450.027491145515</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F32" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G32" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01342360219446714</v>
+        <v>0.01387242115247806</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5158165051943504</v>
+        <v>0.5110267963006877</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cromossoma 42</t>
+          <t>Cromossoma 20</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1451.894859413303</v>
+        <v>1389.867565675638</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F33" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G33" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01319014824325902</v>
+        <v>0.0136352857481622</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5290066534376094</v>
+        <v>0.5246620820488499</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cromossoma 59</t>
+          <t>Cromossoma 30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1364.172191957804</v>
+        <v>1396.025486033959</v>
       </c>
       <c r="D34" t="n">
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F34" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G34" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01319014824325902</v>
+        <v>0.0132795826416884</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5421968016808685</v>
+        <v>0.5379416646905383</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cromossoma 69</t>
+          <t>Cromossoma 46</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1378.107815301573</v>
+        <v>1459.811799432253</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F35" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G35" t="n">
         <v>111</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01295669429205089</v>
+        <v>0.01316101493953047</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5551534959729194</v>
+        <v>0.5511026796300688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cromossoma 19</t>
+          <t>Cromossoma 33</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1381.143397959442</v>
+        <v>1401.254134305736</v>
       </c>
       <c r="D36" t="n">
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F36" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G36" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01283996731644683</v>
+        <v>0.01316101493953047</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5679934632893663</v>
+        <v>0.5642636945695992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cromossoma 83</t>
+          <t>Cromossoma 40</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1381.440666449191</v>
+        <v>1402.105476810236</v>
       </c>
       <c r="D37" t="n">
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F37" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G37" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01272324034084277</v>
+        <v>0.01304244723737254</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5807167036302091</v>
+        <v>0.5773061418069718</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cromossoma 24</t>
+          <t>Cromossoma 56</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1382.711225177618</v>
+        <v>1471.511821715377</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F38" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G38" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01260651336523871</v>
+        <v>0.01292387953521461</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5933232169954478</v>
+        <v>0.5902300213421864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cromossoma 54</t>
+          <t>Cromossoma 44</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1382.947163316562</v>
+        <v>1407.279495217848</v>
       </c>
       <c r="D39" t="n">
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F39" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G39" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01248978638963464</v>
+        <v>0.01292387953521461</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6058130033850824</v>
+        <v>0.603153900877401</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cromossoma 41</t>
+          <t>Cromossoma 32</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1385.0610279497</v>
+        <v>1409.036259541846</v>
       </c>
       <c r="D40" t="n">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F40" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G40" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01237305941403058</v>
+        <v>0.01280531183305668</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6181860627991129</v>
+        <v>0.6159592127104576</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cromossoma 79</t>
+          <t>Cromossoma 54</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1392.201809194945</v>
+        <v>1410.581270189732</v>
       </c>
       <c r="D41" t="n">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F41" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G41" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01225633243842652</v>
+        <v>0.01268674413089874</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6304423952375394</v>
+        <v>0.6286459568413564</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cromossoma 60</t>
+          <t>Cromossoma 75</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1470.075201820232</v>
+        <v>1417.398847425399</v>
       </c>
       <c r="D42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F42" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G42" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0120228784872184</v>
+        <v>0.01244960872658288</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6424652737247578</v>
+        <v>0.6410955655679392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cromossoma 4</t>
+          <t>Cromossoma 27</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1407.237356433671</v>
+        <v>1425.776248993694</v>
       </c>
       <c r="D43" t="n">
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F43" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G43" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01178942453601027</v>
+        <v>0.01221247332226701</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6542546982607681</v>
+        <v>0.6533080388902063</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cromossoma 3</t>
+          <t>Cromossoma 51</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1474.233036374444</v>
+        <v>1480.499473617021</v>
       </c>
       <c r="D44" t="n">
         <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01167269756040621</v>
+        <v>0.01221247332226701</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6659273958211743</v>
+        <v>0.6655205122124733</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cromossoma 62</t>
+          <t>Cromossoma 23</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1407.827408101292</v>
+        <v>1482.847759892268</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F45" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01167269756040621</v>
+        <v>0.01197533791795115</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6776000933815806</v>
+        <v>0.6774958501304245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cromossoma 44</t>
+          <t>Cromossoma 34</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1408.306135094238</v>
+        <v>1427.107441299049</v>
       </c>
       <c r="D46" t="n">
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F46" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G46" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01155597058480215</v>
+        <v>0.01185677021579322</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6891560639663827</v>
+        <v>0.6893526203462177</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cromossoma 55</t>
+          <t>Cromossoma 13</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1478.357063839854</v>
+        <v>1484.889991544684</v>
       </c>
       <c r="D47" t="n">
         <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G47" t="n">
         <v>99</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01155597058480215</v>
+        <v>0.01173820251363529</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7007120345511849</v>
+        <v>0.701090822859853</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cromossoma 82</t>
+          <t>Cromossoma 21</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1412.803260335746</v>
+        <v>1485.168438896268</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G48" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01132251663359402</v>
+        <v>0.01161963481147735</v>
       </c>
       <c r="I48" t="n">
-        <v>0.712034551184779</v>
+        <v>0.7127104576713303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Cromossoma 29</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1436.605664948138</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15</v>
+      </c>
+      <c r="E49" t="n">
         <v>40</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Cromossoma 40</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1417.369139926446</v>
-      </c>
-      <c r="D49" t="n">
-        <v>15</v>
-      </c>
-      <c r="E49" t="n">
-        <v>45</v>
-      </c>
       <c r="F49" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G49" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01120578965798996</v>
+        <v>0.01161963481147735</v>
       </c>
       <c r="I49" t="n">
-        <v>0.723240340842769</v>
+        <v>0.7243300924828077</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cromossoma 30</t>
+          <t>Cromossoma 22</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1418.540574106226</v>
+        <v>1436.909230991703</v>
       </c>
       <c r="D50" t="n">
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F50" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G50" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0110890626823859</v>
+        <v>0.01150106710931942</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7343294035251549</v>
+        <v>0.7358311595921271</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cromossoma 36</t>
+          <t>Cromossoma 69</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1421.692215974798</v>
+        <v>1445.373920631888</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F51" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G51" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01073888175557371</v>
+        <v>0.01126393170500356</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7450682852807285</v>
+        <v>0.7470950912971306</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cromossoma 61</t>
+          <t>Cromossoma 68</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1496.318253818126</v>
+        <v>1447.263474406574</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F52" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G52" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01050542780436559</v>
+        <v>0.01114536400284562</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7555737130850941</v>
+        <v>0.7582404552999762</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cromossoma 17</t>
+          <t>Cromossoma 8</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1427.837379446775</v>
+        <v>1448.90059577948</v>
       </c>
       <c r="D53" t="n">
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F53" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G53" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01038870082876153</v>
+        <v>0.01102679630068769</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7659624139138557</v>
+        <v>0.7692672516006639</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cromossoma 76</t>
+          <t>Cromossoma 42</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1505.192292446905</v>
+        <v>1451.697905632525</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F54" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G54" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01027197385315747</v>
+        <v>0.01078966089637183</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7762343877670131</v>
+        <v>0.7800569124970357</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cromossoma 28</t>
+          <t>Cromossoma 45</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1433.037651763112</v>
+        <v>1320.234667616389</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F55" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G55" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01027197385315747</v>
+        <v>0.0106710931942139</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7865063616201706</v>
+        <v>0.7907280056912496</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cromossoma 37</t>
+          <t>Cromossoma 39</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1527.517346875765</v>
+        <v>1454.816116988445</v>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F56" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G56" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01003851990194934</v>
+        <v>0.0106710931942139</v>
       </c>
       <c r="I56" t="n">
-        <v>0.79654488152212</v>
+        <v>0.8013990988854635</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cromossoma 21</t>
+          <t>Cromossoma 65</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1442.352909722592</v>
+        <v>1510.12957764216</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G57" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H57" t="n">
-        <v>0.009921792926345279</v>
+        <v>0.01055252549205596</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8064666744484653</v>
+        <v>0.8119516243775194</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cromossoma 10</t>
+          <t>Cromossoma 17</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1443.040344082336</v>
+        <v>1458.438561883172</v>
       </c>
       <c r="D58" t="n">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F58" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G58" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H58" t="n">
-        <v>0.009805065950741217</v>
+        <v>0.01043395778989803</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8162717403992066</v>
+        <v>0.8223855821674175</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cromossoma 75</t>
+          <t>Cromossoma 31</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1445.74195396679</v>
+        <v>1458.645827437713</v>
       </c>
       <c r="D59" t="n">
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F59" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G59" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H59" t="n">
-        <v>0.009688338975137155</v>
+        <v>0.0103153900877401</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8259600793743437</v>
+        <v>0.8327009722551576</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cromossoma 38</t>
+          <t>Cromossoma 73</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1455.102347589201</v>
+        <v>1544.328638523958</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G60" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H60" t="n">
-        <v>0.00945488502392903</v>
+        <v>0.01007825468342424</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8354149643982727</v>
+        <v>0.8427792269385819</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cromossoma 80</t>
+          <t>Cromossoma 71</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1456.854685281305</v>
+        <v>1473.702532936619</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F61" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H61" t="n">
-        <v>0.009338158048324968</v>
+        <v>0.009722551576950438</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8447531224465976</v>
+        <v>0.8525017785155323</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cromossoma 15</t>
+          <t>Cromossoma 64</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1457.34356080986</v>
+        <v>1474.217898539236</v>
       </c>
       <c r="D62" t="n">
         <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F62" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G62" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H62" t="n">
-        <v>0.009221431072720906</v>
+        <v>0.009485416172634575</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8539745535193185</v>
+        <v>0.8619871946881669</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cromossoma 52</t>
+          <t>Cromossoma 10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1463.999554719036</v>
+        <v>1479.991696171439</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F63" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G63" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H63" t="n">
-        <v>0.009104704097116844</v>
+        <v>0.009366848470476643</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8630792576164353</v>
+        <v>0.8713540431586435</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cromossoma 22</t>
+          <t>Cromossoma 83</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1465.660426170515</v>
+        <v>1371.26833759307</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F64" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G64" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H64" t="n">
-        <v>0.008987977121512782</v>
+        <v>0.00924828076831871</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8720672347379481</v>
+        <v>0.8806023239269622</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cromossoma 7</t>
+          <t>Cromossoma 72</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1466.861509605503</v>
+        <v>1482.749990956464</v>
       </c>
       <c r="D65" t="n">
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F65" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G65" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H65" t="n">
-        <v>0.008754523170304658</v>
+        <v>0.009129713066160778</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8808217579082528</v>
+        <v>0.889732036993123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cromossoma 64</t>
+          <t>Cromossoma 9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1467.55962197615</v>
+        <v>1484.384719808609</v>
       </c>
       <c r="D66" t="n">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G66" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H66" t="n">
-        <v>0.008637796194700596</v>
+        <v>0.008892577661844913</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8894595541029534</v>
+        <v>0.8986246146549679</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cromossoma 20</t>
+          <t>Cromossoma 15</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1467.726643397014</v>
+        <v>1487.652042042108</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G67" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H67" t="n">
-        <v>0.008521069219096533</v>
+        <v>0.008536874555371117</v>
       </c>
       <c r="I67" t="n">
-        <v>0.89798062332205</v>
+        <v>0.907161489210339</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cromossoma 34</t>
+          <t>Cromossoma 63</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1473.037891453884</v>
+        <v>1492.237079045177</v>
       </c>
       <c r="D68" t="n">
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G68" t="n">
         <v>71</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008287615267888409</v>
+        <v>0.008418306853213185</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9062682385899384</v>
+        <v>0.9155797960635522</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cromossoma 13</t>
+          <t>Cromossoma 78</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1473.120601808986</v>
+        <v>1497.517297850216</v>
       </c>
       <c r="D69" t="n">
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G69" t="n">
         <v>70</v>
       </c>
       <c r="H69" t="n">
-        <v>0.008170888292284347</v>
+        <v>0.008299739151055252</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9144391268822227</v>
+        <v>0.9238795352146074</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cromossoma 5</t>
+          <t>Cromossoma 50</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1480.74698630736</v>
+        <v>1501.726046329303</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G70" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H70" t="n">
-        <v>0.007820707365472161</v>
+        <v>0.007706900640265591</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9222598342476949</v>
+        <v>0.931586435854873</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cromossoma 31</t>
+          <t>Cromossoma 11</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1488.623834824073</v>
+        <v>1514.488450454591</v>
       </c>
       <c r="D71" t="n">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G71" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H71" t="n">
-        <v>0.007587253414264037</v>
+        <v>0.007469765235949727</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9298470876619589</v>
+        <v>0.9390562010908228</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cromossoma 16</t>
+          <t>Cromossoma 41</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1489.229270002221</v>
+        <v>1531.996259952285</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G72" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007470526438659975</v>
+        <v>0.007232629831633863</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9373176141006189</v>
+        <v>0.9462888309224566</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cromossoma 32</t>
+          <t>Cromossoma 47</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1490.888346806634</v>
+        <v>1426.547776668926</v>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F73" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G73" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H73" t="n">
-        <v>0.007353799463055912</v>
+        <v>0.006995494427317998</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9446714135636748</v>
+        <v>0.9532843253497746</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cromossoma 48</t>
+          <t>Cromossoma 58</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1490.916357110463</v>
+        <v>1438.234741578723</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F74" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G74" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H74" t="n">
-        <v>0.00723707248745185</v>
+        <v>0.006284088214370405</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9519084860511267</v>
+        <v>0.959568413564145</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cromossoma 53</t>
+          <t>Cromossoma 79</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1396.290483217396</v>
+        <v>1456.110409191616</v>
       </c>
       <c r="D75" t="n">
         <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F75" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G75" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H75" t="n">
-        <v>0.006886891560639664</v>
+        <v>0.005454114299264881</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9587953776117664</v>
+        <v>0.9650225278634099</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cromossoma 58</t>
+          <t>Cromossoma 49</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1501.582659787241</v>
+        <v>1461.88814935844</v>
       </c>
       <c r="D76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F76" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G76" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H76" t="n">
-        <v>0.006770164585035602</v>
+        <v>0.004979843490633152</v>
       </c>
       <c r="I76" t="n">
-        <v>0.965565542196802</v>
+        <v>0.9700023713540431</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cromossoma 18</t>
+          <t>Cromossoma 1</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1528.618063535953</v>
+        <v>1429.936673753062</v>
       </c>
       <c r="D77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F77" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H77" t="n">
-        <v>0.006303256682619354</v>
+        <v>0.004979843490633152</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9718687988794213</v>
+        <v>0.9749822148446763</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cromossoma 71</t>
+          <t>Cromossoma 3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1563.411181864034</v>
+        <v>1472.810020158847</v>
       </c>
       <c r="D78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F78" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G78" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H78" t="n">
-        <v>0.006186529707015291</v>
+        <v>0.004742708086317288</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9780553285864366</v>
+        <v>0.9797249229309936</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cromossoma 73</t>
+          <t>Cromossoma 77</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1586.977424959843</v>
+        <v>1474.092422557071</v>
       </c>
       <c r="D79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F79" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G79" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H79" t="n">
-        <v>0.006069802731411229</v>
+        <v>0.004505572682001423</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9841251313178478</v>
+        <v>0.984230495612995</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cromossoma 78</t>
+          <t>Cromossoma 66</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1434.729760550154</v>
+        <v>1497.936915939485</v>
       </c>
       <c r="D80" t="n">
         <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G80" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H80" t="n">
-        <v>0.00501925995097467</v>
+        <v>0.003082760256106237</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9891443912688225</v>
+        <v>0.9873132558691012</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cromossoma 27</t>
+          <t>Cromossoma 0</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1466.177800599279</v>
+        <v>1498.838899937996</v>
       </c>
       <c r="D81" t="n">
         <v>16</v>
       </c>
       <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>15</v>
+      </c>
+      <c r="G81" t="n">
         <v>25</v>
       </c>
-      <c r="F81" t="n">
-        <v>7</v>
-      </c>
-      <c r="G81" t="n">
-        <v>32</v>
-      </c>
       <c r="H81" t="n">
-        <v>0.003735263219329987</v>
+        <v>0.002964192553948304</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9928796544881524</v>
+        <v>0.9902774484230495</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cromossoma 6</t>
+          <t>Cromossoma 5</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1494.827341760445</v>
+        <v>1498.963123750274</v>
       </c>
       <c r="D82" t="n">
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G82" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H82" t="n">
-        <v>0.001984358585269056</v>
+        <v>0.002845624851790372</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9948640130734214</v>
+        <v>0.99312307327484</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cromossoma 1</t>
+          <t>Cromossoma 18</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1496.116178203895</v>
+        <v>1499.712219274251</v>
       </c>
       <c r="D83" t="n">
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G83" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H83" t="n">
-        <v>0.001867631609664994</v>
+        <v>0.00272705714963244</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9967316446830864</v>
+        <v>0.9958501304244723</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cromossoma 26</t>
+          <t>Cromossoma 74</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1481.30314717477</v>
+        <v>1529.519618713771</v>
       </c>
       <c r="D84" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G84" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001867631609664994</v>
+        <v>0.002252786341000711</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9985992762927514</v>
+        <v>0.998102916765473</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cromossoma 33</t>
+          <t>Cromossoma 57</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1510.627319986105</v>
+        <v>1547.142513408598</v>
       </c>
       <c r="D85" t="n">
         <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G85" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H85" t="n">
-        <v>0.001400723707248745</v>
+        <v>0.001897083234526915</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
